--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="46">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>No. of Bodies</t>
+  </si>
+  <si>
+    <t>Simulation Iterations = 1000, Blocks = 16, Threads = 128</t>
+  </si>
+  <si>
+    <t>Simulation Iterations = 1000, No. of Bodies = 512</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
                   <c:v>2739.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3572.1</c:v>
+                  <c:v>2805.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,7 +7578,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K23"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7593,7 +7599,7 @@
       </c>
       <c r="B1" s="38"/>
       <c r="G1" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
@@ -7603,7 +7609,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
       <c r="R1" s="38" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="S1" s="38"/>
       <c r="T1" s="38"/>
@@ -7626,28 +7632,28 @@
         <v>43</v>
       </c>
       <c r="G2" s="2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="L2" s="2">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="M2" s="2">
-        <v>700</v>
+        <v>1024</v>
       </c>
       <c r="N2" s="2">
-        <v>800</v>
+        <v>2048</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>0</v>
@@ -7754,8 +7760,8 @@
       <c r="M4" s="1">
         <v>2796</v>
       </c>
-      <c r="N4" s="1">
-        <v>3616</v>
+      <c r="N4">
+        <v>2840</v>
       </c>
       <c r="Q4" s="5">
         <v>1</v>
@@ -7818,8 +7824,8 @@
       <c r="M5" s="1">
         <v>2737</v>
       </c>
-      <c r="N5" s="1">
-        <v>3566</v>
+      <c r="N5">
+        <v>2802</v>
       </c>
       <c r="Q5" s="6">
         <v>2</v>
@@ -7870,8 +7876,8 @@
       <c r="M6" s="1">
         <v>2736</v>
       </c>
-      <c r="N6" s="1">
-        <v>3555</v>
+      <c r="N6">
+        <v>2800</v>
       </c>
       <c r="Q6" s="6">
         <v>3</v>
@@ -7922,8 +7928,8 @@
       <c r="M7" s="1">
         <v>2732</v>
       </c>
-      <c r="N7" s="1">
-        <v>3566</v>
+      <c r="N7">
+        <v>2808</v>
       </c>
       <c r="Q7" s="6">
         <v>4</v>
@@ -7974,8 +7980,8 @@
       <c r="M8" s="1">
         <v>2731</v>
       </c>
-      <c r="N8" s="1">
-        <v>3568</v>
+      <c r="N8">
+        <v>2802</v>
       </c>
       <c r="Q8" s="6">
         <v>5</v>
@@ -8026,8 +8032,8 @@
       <c r="M9" s="1">
         <v>2727</v>
       </c>
-      <c r="N9" s="1">
-        <v>3578</v>
+      <c r="N9">
+        <v>2800</v>
       </c>
       <c r="Q9" s="6">
         <v>6</v>
@@ -8051,7 +8057,7 @@
       </c>
       <c r="B10" s="10">
         <f>AVERAGE(N4:N103)</f>
-        <v>3572.1</v>
+        <v>2805.1</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="6">
@@ -8078,8 +8084,8 @@
       <c r="M10" s="1">
         <v>2743</v>
       </c>
-      <c r="N10" s="1">
-        <v>3583</v>
+      <c r="N10">
+        <v>2799</v>
       </c>
       <c r="Q10" s="6">
         <v>7</v>
@@ -8124,8 +8130,8 @@
       <c r="M11" s="1">
         <v>2723</v>
       </c>
-      <c r="N11" s="1">
-        <v>3567</v>
+      <c r="N11">
+        <v>2802</v>
       </c>
       <c r="Q11" s="6">
         <v>8</v>
@@ -8169,8 +8175,8 @@
       <c r="M12" s="1">
         <v>2742</v>
       </c>
-      <c r="N12" s="1">
-        <v>3564</v>
+      <c r="N12">
+        <v>2804</v>
       </c>
       <c r="Q12" s="6">
         <v>9</v>
@@ -8218,8 +8224,8 @@
       <c r="M13" s="1">
         <v>2726</v>
       </c>
-      <c r="N13" s="1">
-        <v>3558</v>
+      <c r="N13">
+        <v>2804</v>
       </c>
       <c r="Q13" s="6">
         <v>10</v>
@@ -8257,7 +8263,9 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14">
+        <v>2805</v>
+      </c>
       <c r="Q14" s="6">
         <v>11</v>
       </c>
@@ -8295,7 +8303,9 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15">
+        <v>2802</v>
+      </c>
       <c r="Q15" s="6">
         <v>12</v>
       </c>
@@ -8333,7 +8343,9 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16">
+        <v>2806</v>
+      </c>
       <c r="Q16" s="6">
         <v>13</v>
       </c>
@@ -8371,7 +8383,9 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17">
+        <v>2803</v>
+      </c>
       <c r="Q17" s="6">
         <v>14</v>
       </c>
@@ -8409,7 +8423,9 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18">
+        <v>2805</v>
+      </c>
       <c r="Q18" s="6">
         <v>15</v>
       </c>
@@ -8440,7 +8456,9 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19">
+        <v>2804</v>
+      </c>
       <c r="Q19" s="6">
         <v>16</v>
       </c>
@@ -8477,7 +8495,9 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20">
+        <v>2805</v>
+      </c>
       <c r="Q20" s="6">
         <v>17</v>
       </c>
@@ -8508,7 +8528,9 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21">
+        <v>2803</v>
+      </c>
       <c r="Q21" s="6">
         <v>18</v>
       </c>
@@ -8544,7 +8566,9 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22">
+        <v>2802</v>
+      </c>
       <c r="Q22" s="6">
         <v>19</v>
       </c>
@@ -8584,7 +8608,9 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23">
+        <v>2806</v>
+      </c>
       <c r="Q23" s="6">
         <v>20</v>
       </c>
@@ -8873,11 +8899,11 @@
       </c>
       <c r="B31" s="30">
         <f>'Seq. Results'!B10/OMP!B10</f>
-        <v>1</v>
+        <v>1.2734305372357493</v>
       </c>
       <c r="C31" s="32">
         <f>B31/B20</f>
-        <v>0.25</v>
+        <v>0.31835763430893732</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="6"/>

--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\Concurrent-And-Parallel-Systems-CW\Coursework Part 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beej\Documents\Work\C&amp;PS\Coursework\Concurrent-And-Parallel-Systems-CW\Coursework Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Seq Graph" sheetId="14" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <sheet name="Comparison 3" sheetId="12" r:id="rId8"/>
     <sheet name="Comparison 4" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="44">
   <si>
     <t>Time / ms</t>
   </si>
@@ -142,11 +145,32 @@
   <si>
     <t>Threads Per Block</t>
   </si>
+  <si>
+    <t>Std Dev Error</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Image Dimensions = 256x256</t>
+  </si>
+  <si>
+    <t>Samples Per Pixel</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -667,6 +691,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -712,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,13 +838,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -985,13 +1047,13 @@
                   <c:v>1289.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5120.46</c:v>
+                  <c:v>5119.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20205.599999999999</c:v>
+                  <c:v>20196.89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80824.149999999994</c:v>
+                  <c:v>80797.320000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +1259,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="2400" baseline="0"/>
-              <a:t>256x256 Image Generation Performance Comparison</a:t>
+              <a:t>1000 Iterations N-Body Simulation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1264,6 +1326,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Seq. Results'!$E$13:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.88642967896927705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.9165333286953303</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6821732713168225</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0935221010385856</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>17.878129096748353</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26.909438864457961</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>106.66347828568124</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Seq. Results'!$E$13:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.88642967896927705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.9165333286953303</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6821732713168225</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0935221010385856</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>17.878129096748353</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26.909438864457961</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>106.66347828568124</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'Seq. Results'!$A$3:$A$10</c:f>
@@ -1296,10 +1436,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seq. Results'!$B$3:$B$10</c:f>
+              <c:f>'Seq. Results'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20.39</c:v>
                 </c:pt>
@@ -1313,13 +1453,13 @@
                   <c:v>1289.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5120.46</c:v>
+                  <c:v>5119.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20205.599999999999</c:v>
+                  <c:v>20196.89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80824.149999999994</c:v>
+                  <c:v>80797.320000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,7 +1474,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>OpenMP Static</c:v>
+            <c:v>OpenMP</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1346,6 +1486,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>OMP!$E$13:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>4.9347663766301233</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8484908284914683</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0204974816557204</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6033627796752139</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.427539637789939</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.954969603763068</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>82.886232270504365</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>OMP!$E$13:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>4.9347663766301233</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8484908284914683</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0204974816557204</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6033627796752139</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.427539637789939</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.954969603763068</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>82.886232270504365</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>OMP!$A$3:$A$10</c:f>
@@ -1378,10 +1596,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OMP!$B$3:$B$10</c:f>
+              <c:f>OMP!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15.46</c:v>
                 </c:pt>
@@ -1401,7 +1619,7 @@
                   <c:v>7820.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30629.85</c:v>
+                  <c:v>30628.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1634,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>OpenMP Dynamic</c:v>
+            <c:v>CUDA</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1428,12 +1646,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>CUDA!$E$13:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>4.5579877715119563</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.889366012071501</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1820569101818679</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9844157129998719</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7634441321380052</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12.65115014534252</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.363884387548069</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>CUDA!$E$13:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>4.5579877715119563</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.889366012071501</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1820569101818679</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9844157129998719</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7634441321380052</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12.65115014534252</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.363884387548069</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>CUDA!$B$3:$B$10</c:f>
+              <c:f>CUDA!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>105.75</c:v>
                 </c:pt>
@@ -1461,40 +1757,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9EC8-499D-9F4E-B6D5DEECD0B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Manual Multi-Threading</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EC8-499D-9F4E-B6D5DEECD0B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1538,7 +1800,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1800" baseline="0"/>
-                  <a:t>Samples Per Pixel</a:t>
+                  <a:t>Number of Bodies</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1977,18 +2239,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1250</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1998,18 +2248,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2042,16 +2280,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1180.8499999999999</c:v>
+                  <c:v>1183.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1050.5</c:v>
+                  <c:v>1051.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1051.6500000000001</c:v>
+                  <c:v>1058.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1114.9000000000001</c:v>
+                  <c:v>1117.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,7 +2822,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5120.46</c:v>
+                  <c:v>5119.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11957.8</c:v>
@@ -6130,7 +6368,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6186,10 +6424,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8659091" cy="6280727"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -6213,7 +6457,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660876" cy="6294356"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6246,7 +6490,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660876" cy="6294356"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6312,7 +6556,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6280727"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6339,6 +6583,107 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Seq. Results"/>
+      <sheetName val="OpenMP Static"/>
+      <sheetName val="OpenMP Dynamic"/>
+      <sheetName val="Manual Threading"/>
+      <sheetName val="Par. Comparisons"/>
+      <sheetName val="Comaprison 1"/>
+      <sheetName val="Comparison 2"/>
+      <sheetName val="Comparison 3"/>
+      <sheetName val="Comparison 4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4">
+            <v>1536.27</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>3059.91</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6223.33</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>12510.68</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>24544.85</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>48129.36</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>95256.72</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="B4">
+            <v>333.76</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>649.57000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1283.3499999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>2570.4499999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>5100.7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>10108.84</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>20348.64</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6606,60 +6951,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="21"/>
-    <col min="5" max="5" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="21"/>
-    <col min="9" max="9" width="9.140625" style="21" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="21"/>
-    <col min="16" max="16" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="21" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="21"/>
-    <col min="23" max="23" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="21"/>
+    <col min="4" max="4" width="12.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="21"/>
+    <col min="9" max="9" width="9.109375" style="21" customWidth="1"/>
+    <col min="10" max="15" width="9.109375" style="21"/>
+    <col min="16" max="16" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="21" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="21"/>
+    <col min="23" max="23" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -6719,7 +7065,7 @@
       </c>
       <c r="W2" s="25"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -6733,30 +7079,30 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>128</v>
       </c>
@@ -6814,7 +7160,7 @@
         <v>7846</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>256</v>
       </c>
@@ -6872,7 +7218,7 @@
         <v>7793</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>512</v>
       </c>
@@ -6930,13 +7276,13 @@
         <v>7791</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1024</v>
       </c>
       <c r="B7" s="7">
         <f>AVERAGE(K4:K103)</f>
-        <v>5120.46</v>
+        <v>5119.45</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -6988,13 +7334,13 @@
         <v>7827</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2048</v>
       </c>
       <c r="B8" s="7">
         <f>AVERAGE(L4:L103)</f>
-        <v>20205.599999999999</v>
+        <v>20196.89</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -7046,13 +7392,13 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4096</v>
       </c>
       <c r="B9" s="7">
         <f>AVERAGE(M4:M103)</f>
-        <v>80824.149999999994</v>
+        <v>80797.320000000007</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -7104,7 +7450,7 @@
         <v>7819</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10"/>
@@ -7157,12 +7503,14 @@
         <v>7814</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -7210,12 +7558,17 @@
         <v>7805</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="33"/>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="6">
         <v>9</v>
       </c>
@@ -7263,14 +7616,20 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="6">
+        <v>64</v>
+      </c>
+      <c r="E13" s="36">
+        <f>_xlfn.STDEV.S(G4:G103)</f>
+        <v>0.88642967896927705</v>
+      </c>
       <c r="F13" s="6">
         <v>10</v>
       </c>
@@ -7318,7 +7677,7 @@
         <v>7781</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>250</v>
       </c>
@@ -7326,7 +7685,13 @@
         <f>AVERAGE(Q4:Q23)</f>
         <v>1337.4</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="D14" s="6">
+        <v>128</v>
+      </c>
+      <c r="E14" s="36">
+        <f>_xlfn.STDEV.P(H4:H103)</f>
+        <v>1.9165333286953303</v>
+      </c>
       <c r="F14" s="6">
         <v>11</v>
       </c>
@@ -7374,7 +7739,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>500</v>
       </c>
@@ -7383,8 +7748,13 @@
         <v>2699.15</v>
       </c>
       <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="6">
+        <v>256</v>
+      </c>
+      <c r="E15" s="36">
+        <f>_xlfn.STDEV.P(I4:I103)</f>
+        <v>3.6821732713168225</v>
+      </c>
       <c r="F15" s="6">
         <v>12</v>
       </c>
@@ -7432,7 +7802,7 @@
         <v>7799</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>750</v>
       </c>
@@ -7441,8 +7811,13 @@
         <v>3884.6</v>
       </c>
       <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="6">
+        <v>512</v>
+      </c>
+      <c r="E16" s="36">
+        <f>_xlfn.STDEV.P(J4:J103)</f>
+        <v>8.0935221010385856</v>
+      </c>
       <c r="F16" s="6">
         <v>13</v>
       </c>
@@ -7490,7 +7865,7 @@
         <v>7771</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>1000</v>
       </c>
@@ -7499,8 +7874,13 @@
         <v>5214.8500000000004</v>
       </c>
       <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E17" s="36">
+        <f>_xlfn.STDEV.P(K4:K103)</f>
+        <v>17.878129096748353</v>
+      </c>
       <c r="F17" s="6">
         <v>14</v>
       </c>
@@ -7548,7 +7928,7 @@
         <v>7794</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1250</v>
       </c>
@@ -7557,8 +7937,13 @@
         <v>6523.3</v>
       </c>
       <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E18" s="36">
+        <f>_xlfn.STDEV.P(L4:L103)</f>
+        <v>26.909438864457961</v>
+      </c>
       <c r="F18" s="6">
         <v>15</v>
       </c>
@@ -7606,7 +7991,7 @@
         <v>7791</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1500</v>
       </c>
@@ -7615,8 +8000,13 @@
         <v>7799.55</v>
       </c>
       <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E19" s="36">
+        <f>_xlfn.STDEV.P(M4:M103)</f>
+        <v>106.66347828568124</v>
+      </c>
       <c r="F19" s="6">
         <v>16</v>
       </c>
@@ -7664,7 +8054,7 @@
         <v>7804</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="7"/>
       <c r="C20"/>
@@ -7717,7 +8107,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -7770,7 +8160,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -7823,7 +8213,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -7876,7 +8266,7 @@
         <v>7789</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -7900,11 +8290,15 @@
       <c r="K24" s="13">
         <v>5128</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="L24" s="1">
+        <v>20179</v>
+      </c>
+      <c r="M24" s="1">
+        <v>80865</v>
+      </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -7928,11 +8322,15 @@
       <c r="K25" s="13">
         <v>5124</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="L25" s="1">
+        <v>20157</v>
+      </c>
+      <c r="M25" s="1">
+        <v>80735</v>
+      </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="6">
         <v>23</v>
@@ -7952,11 +8350,15 @@
       <c r="K26" s="13">
         <v>5109</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="L26" s="1">
+        <v>20227</v>
+      </c>
+      <c r="M26" s="1">
+        <v>80836</v>
+      </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="6">
         <v>24</v>
@@ -7976,11 +8378,15 @@
       <c r="K27" s="13">
         <v>5121</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="L27" s="1">
+        <v>20201</v>
+      </c>
+      <c r="M27" s="1">
+        <v>80756</v>
+      </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="6">
         <v>25</v>
@@ -8000,11 +8406,15 @@
       <c r="K28" s="13">
         <v>5121</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="L28" s="1">
+        <v>20171</v>
+      </c>
+      <c r="M28" s="1">
+        <v>80767</v>
+      </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="6">
         <v>26</v>
@@ -8024,11 +8434,15 @@
       <c r="K29" s="13">
         <v>5110</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="L29" s="1">
+        <v>20162</v>
+      </c>
+      <c r="M29" s="1">
+        <v>80844</v>
+      </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="6">
         <v>27</v>
@@ -8048,11 +8462,15 @@
       <c r="K30" s="13">
         <v>5109</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="L30" s="1">
+        <v>20165</v>
+      </c>
+      <c r="M30" s="1">
+        <v>80907</v>
+      </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>28</v>
@@ -8072,11 +8490,15 @@
       <c r="K31" s="13">
         <v>5111</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="L31" s="1">
+        <v>20179</v>
+      </c>
+      <c r="M31" s="1">
+        <v>80920</v>
+      </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -8096,11 +8518,15 @@
       <c r="K32" s="13">
         <v>5112</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="L32" s="1">
+        <v>20212</v>
+      </c>
+      <c r="M32" s="1">
+        <v>80839</v>
+      </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>30</v>
@@ -8120,11 +8546,15 @@
       <c r="K33" s="13">
         <v>5105</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="L33" s="1">
+        <v>20231</v>
+      </c>
+      <c r="M33" s="1">
+        <v>80744</v>
+      </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="6">
         <v>31</v>
@@ -8144,11 +8574,15 @@
       <c r="K34" s="13">
         <v>5101</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="L34" s="1">
+        <v>20195</v>
+      </c>
+      <c r="M34" s="1">
+        <v>80825</v>
+      </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="6">
         <v>32</v>
@@ -8168,11 +8602,15 @@
       <c r="K35" s="13">
         <v>5110</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="L35" s="1">
+        <v>20215</v>
+      </c>
+      <c r="M35" s="1">
+        <v>80664</v>
+      </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="6">
         <v>33</v>
@@ -8192,11 +8630,15 @@
       <c r="K36" s="13">
         <v>5131</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="L36" s="1">
+        <v>20174</v>
+      </c>
+      <c r="M36" s="1">
+        <v>80643</v>
+      </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="6">
         <v>34</v>
@@ -8216,11 +8658,15 @@
       <c r="K37" s="13">
         <v>5124</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="L37" s="1">
+        <v>20231</v>
+      </c>
+      <c r="M37" s="1">
+        <v>80855</v>
+      </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="6">
         <v>35</v>
@@ -8240,11 +8686,15 @@
       <c r="K38" s="13">
         <v>5111</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="L38" s="1">
+        <v>20243</v>
+      </c>
+      <c r="M38" s="1">
+        <v>80620</v>
+      </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
         <v>36</v>
       </c>
@@ -8263,10 +8713,14 @@
       <c r="K39" s="14">
         <v>5109</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>20199</v>
+      </c>
+      <c r="M39" s="1">
+        <v>80691</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F40" s="6">
         <v>37</v>
       </c>
@@ -8285,10 +8739,14 @@
       <c r="K40" s="14">
         <v>5112</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>20232</v>
+      </c>
+      <c r="M40" s="1">
+        <v>80861</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
         <v>38</v>
       </c>
@@ -8307,10 +8765,14 @@
       <c r="K41" s="14">
         <v>5123</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L41" s="1">
+        <v>20182</v>
+      </c>
+      <c r="M41" s="1">
+        <v>80766</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -8329,10 +8791,14 @@
       <c r="K42" s="14">
         <v>5115</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L42" s="1">
+        <v>20205</v>
+      </c>
+      <c r="M42" s="1">
+        <v>80886</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
         <v>40</v>
       </c>
@@ -8351,10 +8817,14 @@
       <c r="K43" s="14">
         <v>5119</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L43" s="1">
+        <v>20192</v>
+      </c>
+      <c r="M43" s="1">
+        <v>80879</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F44" s="6">
         <v>41</v>
       </c>
@@ -8373,10 +8843,14 @@
       <c r="K44" s="14">
         <v>5143</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L44" s="1">
+        <v>20161</v>
+      </c>
+      <c r="M44" s="1">
+        <v>80627</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>42</v>
       </c>
@@ -8395,10 +8869,14 @@
       <c r="K45" s="14">
         <v>5091</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L45" s="1">
+        <v>20212</v>
+      </c>
+      <c r="M45" s="1">
+        <v>81188</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
         <v>43</v>
       </c>
@@ -8417,10 +8895,14 @@
       <c r="K46" s="14">
         <v>5114</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <v>20186</v>
+      </c>
+      <c r="M46" s="1">
+        <v>80892</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F47" s="6">
         <v>44</v>
       </c>
@@ -8439,10 +8921,14 @@
       <c r="K47" s="14">
         <v>5119</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L47" s="1">
+        <v>20236</v>
+      </c>
+      <c r="M47" s="1">
+        <v>80883</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F48" s="6">
         <v>45</v>
       </c>
@@ -8461,10 +8947,14 @@
       <c r="K48" s="14">
         <v>5113</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <v>20207</v>
+      </c>
+      <c r="M48" s="1">
+        <v>80638</v>
+      </c>
+    </row>
+    <row r="49" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F49" s="6">
         <v>46</v>
       </c>
@@ -8483,10 +8973,14 @@
       <c r="K49" s="14">
         <v>5114</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="1">
+        <v>20238</v>
+      </c>
+      <c r="M49" s="1">
+        <v>80684</v>
+      </c>
+    </row>
+    <row r="50" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F50" s="6">
         <v>47</v>
       </c>
@@ -8505,10 +8999,14 @@
       <c r="K50" s="14">
         <v>5141</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L50" s="1">
+        <v>20241</v>
+      </c>
+      <c r="M50" s="1">
+        <v>80887</v>
+      </c>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
         <v>48</v>
       </c>
@@ -8527,10 +9025,14 @@
       <c r="K51" s="14">
         <v>5218</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="1">
+        <v>20176</v>
+      </c>
+      <c r="M51" s="1">
+        <v>80700</v>
+      </c>
+    </row>
+    <row r="52" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F52" s="6">
         <v>49</v>
       </c>
@@ -8549,10 +9051,14 @@
       <c r="K52" s="14">
         <v>5104</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-    </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <v>20233</v>
+      </c>
+      <c r="M52" s="1">
+        <v>80673</v>
+      </c>
+    </row>
+    <row r="53" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
         <v>50</v>
       </c>
@@ -8571,10 +9077,14 @@
       <c r="K53" s="14">
         <v>5143</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="1">
+        <v>20232</v>
+      </c>
+      <c r="M53" s="1">
+        <v>80685</v>
+      </c>
+    </row>
+    <row r="54" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F54" s="6">
         <v>51</v>
       </c>
@@ -8590,11 +9100,17 @@
       <c r="J54" s="14">
         <v>1285</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K54" s="1">
+        <v>5140</v>
+      </c>
+      <c r="L54" s="1">
+        <v>20168</v>
+      </c>
+      <c r="M54" s="1">
+        <v>80767</v>
+      </c>
+    </row>
+    <row r="55" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F55" s="6">
         <v>52</v>
       </c>
@@ -8610,11 +9126,17 @@
       <c r="J55" s="14">
         <v>1282</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K55" s="1">
+        <v>5115</v>
+      </c>
+      <c r="L55" s="1">
+        <v>20157</v>
+      </c>
+      <c r="M55" s="1">
+        <v>80639</v>
+      </c>
+    </row>
+    <row r="56" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F56" s="6">
         <v>53</v>
       </c>
@@ -8630,11 +9152,17 @@
       <c r="J56" s="14">
         <v>1295</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <v>5117</v>
+      </c>
+      <c r="L56" s="1">
+        <v>20194</v>
+      </c>
+      <c r="M56" s="1">
+        <v>80766</v>
+      </c>
+    </row>
+    <row r="57" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F57" s="6">
         <v>54</v>
       </c>
@@ -8650,11 +9178,17 @@
       <c r="J57" s="14">
         <v>1290</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K57" s="1">
+        <v>5106</v>
+      </c>
+      <c r="L57" s="1">
+        <v>20178</v>
+      </c>
+      <c r="M57" s="1">
+        <v>80810</v>
+      </c>
+    </row>
+    <row r="58" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F58" s="6">
         <v>55</v>
       </c>
@@ -8670,11 +9204,17 @@
       <c r="J58" s="14">
         <v>1281</v>
       </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K58" s="1">
+        <v>5132</v>
+      </c>
+      <c r="L58" s="1">
+        <v>20185</v>
+      </c>
+      <c r="M58" s="1">
+        <v>80936</v>
+      </c>
+    </row>
+    <row r="59" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F59" s="6">
         <v>56</v>
       </c>
@@ -8690,11 +9230,17 @@
       <c r="J59" s="14">
         <v>1288</v>
       </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-    </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K59" s="1">
+        <v>5104</v>
+      </c>
+      <c r="L59" s="1">
+        <v>20171</v>
+      </c>
+      <c r="M59" s="1">
+        <v>80938</v>
+      </c>
+    </row>
+    <row r="60" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F60" s="6">
         <v>57</v>
       </c>
@@ -8710,11 +9256,17 @@
       <c r="J60" s="14">
         <v>1322</v>
       </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-    </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K60" s="1">
+        <v>5140</v>
+      </c>
+      <c r="L60" s="1">
+        <v>20197</v>
+      </c>
+      <c r="M60" s="1">
+        <v>80897</v>
+      </c>
+    </row>
+    <row r="61" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F61" s="6">
         <v>58</v>
       </c>
@@ -8730,11 +9282,17 @@
       <c r="J61" s="14">
         <v>1312</v>
       </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K61" s="1">
+        <v>5100</v>
+      </c>
+      <c r="L61" s="1">
+        <v>20243</v>
+      </c>
+      <c r="M61" s="1">
+        <v>80807</v>
+      </c>
+    </row>
+    <row r="62" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F62" s="6">
         <v>59</v>
       </c>
@@ -8750,11 +9308,17 @@
       <c r="J62" s="14">
         <v>1285</v>
       </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K62" s="1">
+        <v>5129</v>
+      </c>
+      <c r="L62" s="1">
+        <v>20189</v>
+      </c>
+      <c r="M62" s="1">
+        <v>80627</v>
+      </c>
+    </row>
+    <row r="63" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F63" s="6">
         <v>60</v>
       </c>
@@ -8770,11 +9334,17 @@
       <c r="J63" s="14">
         <v>1286</v>
       </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K63" s="1">
+        <v>5124</v>
+      </c>
+      <c r="L63" s="1">
+        <v>20177</v>
+      </c>
+      <c r="M63" s="1">
+        <v>80703</v>
+      </c>
+    </row>
+    <row r="64" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F64" s="6">
         <v>61</v>
       </c>
@@ -8790,11 +9360,17 @@
       <c r="J64" s="14">
         <v>1295</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K64" s="1">
+        <v>5135</v>
+      </c>
+      <c r="L64" s="1">
+        <v>20185</v>
+      </c>
+      <c r="M64" s="1">
+        <v>80712</v>
+      </c>
+    </row>
+    <row r="65" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F65" s="6">
         <v>62</v>
       </c>
@@ -8810,11 +9386,17 @@
       <c r="J65" s="14">
         <v>1306</v>
       </c>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K65" s="1">
+        <v>5108</v>
+      </c>
+      <c r="L65" s="1">
+        <v>20187</v>
+      </c>
+      <c r="M65" s="1">
+        <v>80753</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F66" s="6">
         <v>63</v>
       </c>
@@ -8830,11 +9412,17 @@
       <c r="J66" s="14">
         <v>1285</v>
       </c>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K66" s="1">
+        <v>5103</v>
+      </c>
+      <c r="L66" s="1">
+        <v>20192</v>
+      </c>
+      <c r="M66" s="1">
+        <v>80774</v>
+      </c>
+    </row>
+    <row r="67" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F67" s="6">
         <v>64</v>
       </c>
@@ -8850,11 +9438,17 @@
       <c r="J67" s="14">
         <v>1289</v>
       </c>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K67" s="1">
+        <v>5136</v>
+      </c>
+      <c r="L67" s="1">
+        <v>20176</v>
+      </c>
+      <c r="M67" s="1">
+        <v>80865</v>
+      </c>
+    </row>
+    <row r="68" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F68" s="6">
         <v>65</v>
       </c>
@@ -8870,11 +9464,17 @@
       <c r="J68" s="14">
         <v>1288</v>
       </c>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-    </row>
-    <row r="69" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <v>5128</v>
+      </c>
+      <c r="L68" s="1">
+        <v>20203</v>
+      </c>
+      <c r="M68" s="1">
+        <v>80912</v>
+      </c>
+    </row>
+    <row r="69" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F69" s="6">
         <v>66</v>
       </c>
@@ -8890,11 +9490,17 @@
       <c r="J69" s="14">
         <v>1286</v>
       </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="70" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K69" s="1">
+        <v>5125</v>
+      </c>
+      <c r="L69" s="1">
+        <v>20165</v>
+      </c>
+      <c r="M69" s="1">
+        <v>80725</v>
+      </c>
+    </row>
+    <row r="70" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F70" s="6">
         <v>67</v>
       </c>
@@ -8910,11 +9516,17 @@
       <c r="J70" s="14">
         <v>1292</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <v>5142</v>
+      </c>
+      <c r="L70" s="1">
+        <v>20183</v>
+      </c>
+      <c r="M70" s="1">
+        <v>80774</v>
+      </c>
+    </row>
+    <row r="71" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F71" s="6">
         <v>68</v>
       </c>
@@ -8930,11 +9542,17 @@
       <c r="J71" s="14">
         <v>1285</v>
       </c>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-    </row>
-    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <v>5112</v>
+      </c>
+      <c r="L71" s="1">
+        <v>20185</v>
+      </c>
+      <c r="M71" s="1">
+        <v>80681</v>
+      </c>
+    </row>
+    <row r="72" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F72" s="6">
         <v>69</v>
       </c>
@@ -8950,11 +9568,17 @@
       <c r="J72" s="14">
         <v>1285</v>
       </c>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-    </row>
-    <row r="73" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K72" s="1">
+        <v>5114</v>
+      </c>
+      <c r="L72" s="1">
+        <v>20202</v>
+      </c>
+      <c r="M72" s="1">
+        <v>80746</v>
+      </c>
+    </row>
+    <row r="73" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F73" s="6">
         <v>70</v>
       </c>
@@ -8970,11 +9594,17 @@
       <c r="J73" s="14">
         <v>1284</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-    </row>
-    <row r="74" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K73" s="1">
+        <v>5101</v>
+      </c>
+      <c r="L73" s="1">
+        <v>20221</v>
+      </c>
+      <c r="M73" s="1">
+        <v>80660</v>
+      </c>
+    </row>
+    <row r="74" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F74" s="6">
         <v>71</v>
       </c>
@@ -8990,11 +9620,17 @@
       <c r="J74" s="14">
         <v>1293</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <v>5104</v>
+      </c>
+      <c r="L74" s="1">
+        <v>20155</v>
+      </c>
+      <c r="M74" s="1">
+        <v>80950</v>
+      </c>
+    </row>
+    <row r="75" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F75" s="6">
         <v>72</v>
       </c>
@@ -9010,11 +9646,17 @@
       <c r="J75" s="14">
         <v>1304</v>
       </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K75" s="1">
+        <v>5126</v>
+      </c>
+      <c r="L75" s="1">
+        <v>20241</v>
+      </c>
+      <c r="M75" s="1">
+        <v>80844</v>
+      </c>
+    </row>
+    <row r="76" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F76" s="6">
         <v>73</v>
       </c>
@@ -9030,11 +9672,17 @@
       <c r="J76" s="14">
         <v>1293</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-    </row>
-    <row r="77" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K76" s="1">
+        <v>5121</v>
+      </c>
+      <c r="L76" s="1">
+        <v>20156</v>
+      </c>
+      <c r="M76" s="1">
+        <v>80902</v>
+      </c>
+    </row>
+    <row r="77" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F77" s="6">
         <v>74</v>
       </c>
@@ -9050,11 +9698,17 @@
       <c r="J77" s="14">
         <v>1286</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-    </row>
-    <row r="78" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K77" s="1">
+        <v>5127</v>
+      </c>
+      <c r="L77" s="1">
+        <v>20155</v>
+      </c>
+      <c r="M77" s="1">
+        <v>80838</v>
+      </c>
+    </row>
+    <row r="78" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F78" s="6">
         <v>75</v>
       </c>
@@ -9070,11 +9724,17 @@
       <c r="J78" s="14">
         <v>1288</v>
       </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K78" s="1">
+        <v>5116</v>
+      </c>
+      <c r="L78" s="1">
+        <v>20167</v>
+      </c>
+      <c r="M78" s="1">
+        <v>80765</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F79" s="6">
         <v>76</v>
       </c>
@@ -9090,11 +9750,17 @@
       <c r="J79" s="14">
         <v>1287</v>
       </c>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K79" s="1">
+        <v>5118</v>
+      </c>
+      <c r="L79" s="1">
+        <v>20212</v>
+      </c>
+      <c r="M79" s="1">
+        <v>80945</v>
+      </c>
+    </row>
+    <row r="80" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F80" s="6">
         <v>77</v>
       </c>
@@ -9110,11 +9776,17 @@
       <c r="J80" s="14">
         <v>1297</v>
       </c>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K80" s="1">
+        <v>5109</v>
+      </c>
+      <c r="L80" s="1">
+        <v>20192</v>
+      </c>
+      <c r="M80" s="1">
+        <v>80835</v>
+      </c>
+    </row>
+    <row r="81" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F81" s="6">
         <v>78</v>
       </c>
@@ -9130,11 +9802,17 @@
       <c r="J81" s="14">
         <v>1282</v>
       </c>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K81" s="1">
+        <v>5128</v>
+      </c>
+      <c r="L81" s="1">
+        <v>20161</v>
+      </c>
+      <c r="M81" s="1">
+        <v>80863</v>
+      </c>
+    </row>
+    <row r="82" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F82" s="6">
         <v>79</v>
       </c>
@@ -9150,11 +9828,17 @@
       <c r="J82" s="14">
         <v>1277</v>
       </c>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K82" s="1">
+        <v>5134</v>
+      </c>
+      <c r="L82" s="1">
+        <v>20222</v>
+      </c>
+      <c r="M82" s="1">
+        <v>80798</v>
+      </c>
+    </row>
+    <row r="83" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F83" s="6">
         <v>80</v>
       </c>
@@ -9170,11 +9854,17 @@
       <c r="J83" s="14">
         <v>1287</v>
       </c>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K83" s="1">
+        <v>5125</v>
+      </c>
+      <c r="L83" s="1">
+        <v>20235</v>
+      </c>
+      <c r="M83" s="1">
+        <v>80767</v>
+      </c>
+    </row>
+    <row r="84" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F84" s="6">
         <v>81</v>
       </c>
@@ -9190,11 +9880,17 @@
       <c r="J84" s="14">
         <v>1291</v>
       </c>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K84" s="1">
+        <v>5102</v>
+      </c>
+      <c r="L84" s="1">
+        <v>20177</v>
+      </c>
+      <c r="M84" s="1">
+        <v>80641</v>
+      </c>
+    </row>
+    <row r="85" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F85" s="6">
         <v>82</v>
       </c>
@@ -9210,11 +9906,17 @@
       <c r="J85" s="14">
         <v>1288</v>
       </c>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K85" s="1">
+        <v>5131</v>
+      </c>
+      <c r="L85" s="1">
+        <v>20167</v>
+      </c>
+      <c r="M85" s="1">
+        <v>80648</v>
+      </c>
+    </row>
+    <row r="86" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F86" s="6">
         <v>83</v>
       </c>
@@ -9230,11 +9932,17 @@
       <c r="J86" s="14">
         <v>1288</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K86" s="1">
+        <v>5103</v>
+      </c>
+      <c r="L86" s="1">
+        <v>20218</v>
+      </c>
+      <c r="M86" s="1">
+        <v>80833</v>
+      </c>
+    </row>
+    <row r="87" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F87" s="6">
         <v>84</v>
       </c>
@@ -9250,11 +9958,17 @@
       <c r="J87" s="14">
         <v>1291</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-    </row>
-    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K87" s="1">
+        <v>5111</v>
+      </c>
+      <c r="L87" s="1">
+        <v>20240</v>
+      </c>
+      <c r="M87" s="1">
+        <v>80847</v>
+      </c>
+    </row>
+    <row r="88" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F88" s="6">
         <v>85</v>
       </c>
@@ -9270,11 +9984,17 @@
       <c r="J88" s="14">
         <v>1283</v>
       </c>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K88" s="1">
+        <v>5118</v>
+      </c>
+      <c r="L88" s="1">
+        <v>20190</v>
+      </c>
+      <c r="M88" s="1">
+        <v>80763</v>
+      </c>
+    </row>
+    <row r="89" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F89" s="6">
         <v>86</v>
       </c>
@@ -9290,11 +10010,17 @@
       <c r="J89" s="14">
         <v>1294</v>
       </c>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-    </row>
-    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K89" s="1">
+        <v>5110</v>
+      </c>
+      <c r="L89" s="1">
+        <v>20201</v>
+      </c>
+      <c r="M89" s="1">
+        <v>80690</v>
+      </c>
+    </row>
+    <row r="90" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F90" s="6">
         <v>87</v>
       </c>
@@ -9310,11 +10036,17 @@
       <c r="J90" s="14">
         <v>1285</v>
       </c>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-    </row>
-    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K90" s="1">
+        <v>5107</v>
+      </c>
+      <c r="L90" s="1">
+        <v>20165</v>
+      </c>
+      <c r="M90" s="1">
+        <v>80652</v>
+      </c>
+    </row>
+    <row r="91" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F91" s="6">
         <v>88</v>
       </c>
@@ -9330,11 +10062,17 @@
       <c r="J91" s="14">
         <v>1289</v>
       </c>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-    </row>
-    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K91" s="1">
+        <v>5120</v>
+      </c>
+      <c r="L91" s="1">
+        <v>20186</v>
+      </c>
+      <c r="M91" s="1">
+        <v>80782</v>
+      </c>
+    </row>
+    <row r="92" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F92" s="6">
         <v>89</v>
       </c>
@@ -9350,11 +10088,17 @@
       <c r="J92" s="14">
         <v>1296</v>
       </c>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-    </row>
-    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K92" s="1">
+        <v>5102</v>
+      </c>
+      <c r="L92" s="1">
+        <v>20179</v>
+      </c>
+      <c r="M92" s="1">
+        <v>80832</v>
+      </c>
+    </row>
+    <row r="93" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F93" s="6">
         <v>90</v>
       </c>
@@ -9370,11 +10114,17 @@
       <c r="J93" s="14">
         <v>1288</v>
       </c>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-    </row>
-    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K93" s="1">
+        <v>5101</v>
+      </c>
+      <c r="L93" s="1">
+        <v>20171</v>
+      </c>
+      <c r="M93" s="1">
+        <v>80753</v>
+      </c>
+    </row>
+    <row r="94" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F94" s="6">
         <v>91</v>
       </c>
@@ -9390,11 +10140,17 @@
       <c r="J94" s="14">
         <v>1288</v>
       </c>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-    </row>
-    <row r="95" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K94" s="1">
+        <v>5135</v>
+      </c>
+      <c r="L94" s="1">
+        <v>20228</v>
+      </c>
+      <c r="M94" s="1">
+        <v>80909</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F95" s="6">
         <v>92</v>
       </c>
@@ -9410,11 +10166,17 @@
       <c r="J95" s="14">
         <v>1290</v>
       </c>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K95" s="1">
+        <v>5141</v>
+      </c>
+      <c r="L95" s="1">
+        <v>20192</v>
+      </c>
+      <c r="M95" s="1">
+        <v>80917</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F96" s="6">
         <v>93</v>
       </c>
@@ -9430,11 +10192,17 @@
       <c r="J96" s="14">
         <v>1288</v>
       </c>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K96" s="1">
+        <v>5101</v>
+      </c>
+      <c r="L96" s="1">
+        <v>20245</v>
+      </c>
+      <c r="M96" s="1">
+        <v>80884</v>
+      </c>
+    </row>
+    <row r="97" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F97" s="6">
         <v>94</v>
       </c>
@@ -9450,11 +10218,17 @@
       <c r="J97" s="14">
         <v>1286</v>
       </c>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K97" s="1">
+        <v>5141</v>
+      </c>
+      <c r="L97" s="1">
+        <v>20164</v>
+      </c>
+      <c r="M97" s="1">
+        <v>80922</v>
+      </c>
+    </row>
+    <row r="98" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F98" s="6">
         <v>95</v>
       </c>
@@ -9470,11 +10244,17 @@
       <c r="J98" s="14">
         <v>1292</v>
       </c>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-    </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K98" s="1">
+        <v>5101</v>
+      </c>
+      <c r="L98" s="1">
+        <v>20208</v>
+      </c>
+      <c r="M98" s="1">
+        <v>80738</v>
+      </c>
+    </row>
+    <row r="99" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F99" s="6">
         <v>96</v>
       </c>
@@ -9490,11 +10270,17 @@
       <c r="J99" s="14">
         <v>1290</v>
       </c>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K99" s="1">
+        <v>5105</v>
+      </c>
+      <c r="L99" s="1">
+        <v>20160</v>
+      </c>
+      <c r="M99" s="1">
+        <v>80671</v>
+      </c>
+    </row>
+    <row r="100" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F100" s="6">
         <v>97</v>
       </c>
@@ -9510,11 +10296,17 @@
       <c r="J100" s="14">
         <v>1286</v>
       </c>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K100" s="1">
+        <v>5106</v>
+      </c>
+      <c r="L100" s="1">
+        <v>20171</v>
+      </c>
+      <c r="M100" s="1">
+        <v>80870</v>
+      </c>
+    </row>
+    <row r="101" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F101" s="6">
         <v>98</v>
       </c>
@@ -9530,11 +10322,17 @@
       <c r="J101" s="14">
         <v>1285</v>
       </c>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-    </row>
-    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K101" s="1">
+        <v>5126</v>
+      </c>
+      <c r="L101" s="1">
+        <v>20206</v>
+      </c>
+      <c r="M101" s="1">
+        <v>80742</v>
+      </c>
+    </row>
+    <row r="102" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F102" s="6">
         <v>99</v>
       </c>
@@ -9550,11 +10348,17 @@
       <c r="J102" s="14">
         <v>1295</v>
       </c>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-    </row>
-    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K102" s="1">
+        <v>5101</v>
+      </c>
+      <c r="L102" s="1">
+        <v>20203</v>
+      </c>
+      <c r="M102" s="1">
+        <v>80627</v>
+      </c>
+    </row>
+    <row r="103" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F103" s="6">
         <v>100</v>
       </c>
@@ -9570,18 +10374,25 @@
       <c r="J103" s="14">
         <v>1291</v>
       </c>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
+      <c r="K103" s="1">
+        <v>5141</v>
+      </c>
+      <c r="L103" s="1">
+        <v>20178</v>
+      </c>
+      <c r="M103" s="1">
+        <v>80769</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="Q3:V3"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9592,58 +10403,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
-    <col min="5" max="5" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="17"/>
-    <col min="16" max="16" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="17" customWidth="1"/>
-    <col min="18" max="23" width="9.140625" style="17"/>
-    <col min="24" max="24" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="17.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="9.109375" style="17"/>
+    <col min="15" max="15" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="17" customWidth="1"/>
+    <col min="18" max="23" width="9.109375" style="17"/>
+    <col min="24" max="24" width="17.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -9680,30 +10488,16 @@
         <v>4096</v>
       </c>
       <c r="N2" s="14"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="27">
-        <v>250</v>
-      </c>
-      <c r="R2" s="28">
-        <v>500</v>
-      </c>
-      <c r="S2" s="28">
-        <v>750</v>
-      </c>
-      <c r="T2" s="29">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="29">
-        <v>1250</v>
-      </c>
-      <c r="V2" s="29">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -9717,29 +10511,25 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>128</v>
       </c>
@@ -9775,18 +10565,16 @@
         <v>30857</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O4" s="10"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>256</v>
       </c>
@@ -9822,18 +10610,16 @@
         <v>30715</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="14"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O5" s="10"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>512</v>
       </c>
@@ -9869,18 +10655,16 @@
         <v>30465</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="14"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O6" s="10"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1024</v>
       </c>
@@ -9916,18 +10700,16 @@
         <v>30652</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="14"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O7" s="10"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2048</v>
       </c>
@@ -9963,24 +10745,22 @@
         <v>30712</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="14"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O8" s="10"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4096</v>
       </c>
       <c r="B9" s="7">
         <f>AVERAGE(M4:M103)</f>
-        <v>30629.85</v>
+        <v>30628.95</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -10010,18 +10790,16 @@
         <v>30615</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="14"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O9" s="10"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10"/>
@@ -10053,22 +10831,22 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="21"/>
-      <c r="P10" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="14"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -10095,24 +10873,22 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="21"/>
-      <c r="P11" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="14"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="30"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="6">
         <v>9</v>
       </c>
@@ -10139,26 +10915,25 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="21"/>
-      <c r="P12" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="14"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="6">
+        <v>64</v>
+      </c>
+      <c r="E13" s="36">
+        <f>_xlfn.STDEV.S(G4:G103)</f>
+        <v>4.9347663766301233</v>
+      </c>
       <c r="F13" s="6">
         <v>10</v>
       </c>
@@ -10185,27 +10960,25 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="14"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>250</v>
-      </c>
-      <c r="B14" s="7" t="e">
-        <f>AVERAGE(Q4:Q23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="6">
+        <v>128</v>
+      </c>
+      <c r="E14" s="36">
+        <f>_xlfn.STDEV.P(H4:H103)</f>
+        <v>2.8484908284914683</v>
+      </c>
       <c r="F14" s="6">
         <v>11</v>
       </c>
@@ -10232,27 +11005,25 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="21"/>
-      <c r="P14" s="6">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>500</v>
-      </c>
-      <c r="B15" s="7" t="e">
-        <f>AVERAGE(R4:R23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
       <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="6">
+        <v>256</v>
+      </c>
+      <c r="E15" s="36">
+        <f>_xlfn.STDEV.P(I4:I103)</f>
+        <v>4.0204974816557204</v>
+      </c>
       <c r="F15" s="6">
         <v>12</v>
       </c>
@@ -10279,27 +11050,25 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="14"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>750</v>
-      </c>
-      <c r="B16" s="7" t="e">
-        <f>AVERAGE(S4:S23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="18"/>
       <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="6">
+        <v>512</v>
+      </c>
+      <c r="E16" s="36">
+        <f>_xlfn.STDEV.P(J4:J103)</f>
+        <v>6.6033627796752139</v>
+      </c>
       <c r="F16" s="6">
         <v>13</v>
       </c>
@@ -10326,27 +11095,25 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="6">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="14"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="7" t="e">
-        <f>AVERAGE(T4:T23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
       <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E17" s="36">
+        <f>_xlfn.STDEV.P(K4:K103)</f>
+        <v>14.427539637789939</v>
+      </c>
       <c r="F17" s="6">
         <v>14</v>
       </c>
@@ -10373,27 +11140,25 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="21"/>
-      <c r="P17" s="6">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="14"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>1250</v>
-      </c>
-      <c r="B18" s="7" t="e">
-        <f>AVERAGE(U4:U23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="18"/>
       <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E18" s="36">
+        <f>_xlfn.STDEV.P(L4:L103)</f>
+        <v>34.954969603763068</v>
+      </c>
       <c r="F18" s="6">
         <v>15</v>
       </c>
@@ -10420,27 +11185,25 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="14"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>1500</v>
-      </c>
-      <c r="B19" s="7" t="e">
-        <f>AVERAGE(V4:V23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="18"/>
       <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E19" s="36">
+        <f>_xlfn.STDEV.P(M4:M103)</f>
+        <v>82.886232270504365</v>
+      </c>
       <c r="F19" s="6">
         <v>16</v>
       </c>
@@ -10467,17 +11230,15 @@
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="14"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="7"/>
       <c r="C20"/>
@@ -10509,17 +11270,15 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="14"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -10551,17 +11310,15 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="21"/>
-      <c r="P21" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="14"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -10593,17 +11350,15 @@
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="21"/>
-      <c r="P22" s="6">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="14"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -10635,18 +11390,16 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E24" s="33"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E24" s="32"/>
       <c r="F24" s="6">
         <v>21</v>
       </c>
@@ -10668,10 +11421,12 @@
       <c r="L24" s="1">
         <v>7829</v>
       </c>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="33"/>
+      <c r="M24" s="1">
+        <v>30528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E25" s="32"/>
       <c r="F25" s="6">
         <v>22</v>
       </c>
@@ -10693,10 +11448,12 @@
       <c r="L25" s="1">
         <v>7867</v>
       </c>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E26" s="33"/>
+      <c r="M25" s="1">
+        <v>30525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E26" s="32"/>
       <c r="F26" s="6">
         <v>23</v>
       </c>
@@ -10718,10 +11475,12 @@
       <c r="L26" s="1">
         <v>7837</v>
       </c>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E27" s="33"/>
+      <c r="M26" s="1">
+        <v>30651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E27" s="32"/>
       <c r="F27" s="6">
         <v>24</v>
       </c>
@@ -10743,10 +11502,12 @@
       <c r="L27" s="1">
         <v>7803</v>
       </c>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E28" s="33"/>
+      <c r="M27" s="1">
+        <v>30606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E28" s="32"/>
       <c r="F28" s="6">
         <v>25</v>
       </c>
@@ -10768,10 +11529,12 @@
       <c r="L28" s="1">
         <v>7828</v>
       </c>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="33"/>
+      <c r="M28" s="1">
+        <v>30659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E29" s="32"/>
       <c r="F29" s="6">
         <v>26</v>
       </c>
@@ -10793,10 +11556,12 @@
       <c r="L29" s="1">
         <v>7766</v>
       </c>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E30" s="33"/>
+      <c r="M29" s="1">
+        <v>30664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E30" s="32"/>
       <c r="F30" s="6">
         <v>27</v>
       </c>
@@ -10818,10 +11583,12 @@
       <c r="L30" s="1">
         <v>7853</v>
       </c>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E31" s="33"/>
+      <c r="M30" s="1">
+        <v>30537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E31" s="32"/>
       <c r="F31" s="6">
         <v>28</v>
       </c>
@@ -10843,10 +11610,12 @@
       <c r="L31" s="1">
         <v>7786</v>
       </c>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E32" s="33"/>
+      <c r="M31" s="1">
+        <v>30532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E32" s="32"/>
       <c r="F32" s="6">
         <v>29</v>
       </c>
@@ -10868,10 +11637,12 @@
       <c r="L32" s="1">
         <v>7814</v>
       </c>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="33"/>
+      <c r="M32" s="1">
+        <v>30532</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="32"/>
       <c r="F33" s="6">
         <v>30</v>
       </c>
@@ -10893,10 +11664,12 @@
       <c r="L33" s="1">
         <v>7843</v>
       </c>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E34" s="33"/>
+      <c r="M33" s="1">
+        <v>30741</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E34" s="32"/>
       <c r="F34" s="6">
         <v>31</v>
       </c>
@@ -10918,10 +11691,12 @@
       <c r="L34" s="1">
         <v>7809</v>
       </c>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="33"/>
+      <c r="M34" s="1">
+        <v>30737</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E35" s="32"/>
       <c r="F35" s="6">
         <v>32</v>
       </c>
@@ -10943,10 +11718,12 @@
       <c r="L35" s="1">
         <v>7793</v>
       </c>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E36" s="33"/>
+      <c r="M35" s="1">
+        <v>30589</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E36" s="32"/>
       <c r="F36" s="6">
         <v>33</v>
       </c>
@@ -10968,10 +11745,12 @@
       <c r="L36" s="1">
         <v>7821</v>
       </c>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E37" s="33"/>
+      <c r="M36" s="1">
+        <v>30683</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E37" s="32"/>
       <c r="F37" s="6">
         <v>34</v>
       </c>
@@ -10993,10 +11772,12 @@
       <c r="L37" s="1">
         <v>7777</v>
       </c>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E38" s="33"/>
+      <c r="M37" s="1">
+        <v>30647</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E38" s="32"/>
       <c r="F38" s="6">
         <v>35</v>
       </c>
@@ -11018,10 +11799,12 @@
       <c r="L38" s="1">
         <v>7799</v>
       </c>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="33"/>
+      <c r="M38" s="1">
+        <v>30657</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39" s="32"/>
       <c r="F39" s="6">
         <v>36</v>
       </c>
@@ -11043,10 +11826,12 @@
       <c r="L39" s="1">
         <v>7815</v>
       </c>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E40" s="33"/>
+      <c r="M39" s="1">
+        <v>30690</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E40" s="32"/>
       <c r="F40" s="6">
         <v>37</v>
       </c>
@@ -11068,10 +11853,12 @@
       <c r="L40" s="1">
         <v>7758</v>
       </c>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E41" s="33"/>
+      <c r="M40" s="1">
+        <v>30517</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="32"/>
       <c r="F41" s="6">
         <v>38</v>
       </c>
@@ -11093,10 +11880,12 @@
       <c r="L41" s="1">
         <v>7815</v>
       </c>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E42" s="33"/>
+      <c r="M41" s="1">
+        <v>30748</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E42" s="32"/>
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -11118,10 +11907,12 @@
       <c r="L42" s="1">
         <v>7862</v>
       </c>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E43" s="33"/>
+      <c r="M42" s="1">
+        <v>30763</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E43" s="32"/>
       <c r="F43" s="6">
         <v>40</v>
       </c>
@@ -11143,10 +11934,12 @@
       <c r="L43" s="1">
         <v>7837</v>
       </c>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E44" s="33"/>
+      <c r="M43" s="1">
+        <v>30531</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E44" s="32"/>
       <c r="F44" s="6">
         <v>41</v>
       </c>
@@ -11168,10 +11961,12 @@
       <c r="L44" s="1">
         <v>7840</v>
       </c>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E45" s="33"/>
+      <c r="M44" s="1">
+        <v>30541</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="32"/>
       <c r="F45" s="6">
         <v>42</v>
       </c>
@@ -11193,10 +11988,12 @@
       <c r="L45" s="1">
         <v>7783</v>
       </c>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E46" s="33"/>
+      <c r="M45" s="1">
+        <v>30524</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="32"/>
       <c r="F46" s="6">
         <v>43</v>
       </c>
@@ -11218,10 +12015,12 @@
       <c r="L46" s="1">
         <v>7835</v>
       </c>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="33"/>
+      <c r="M46" s="1">
+        <v>30570</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E47" s="32"/>
       <c r="F47" s="6">
         <v>44</v>
       </c>
@@ -11243,10 +12042,12 @@
       <c r="L47" s="1">
         <v>7848</v>
       </c>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="33"/>
+      <c r="M47" s="1">
+        <v>30751</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="32"/>
       <c r="F48" s="6">
         <v>45</v>
       </c>
@@ -11268,10 +12069,12 @@
       <c r="L48" s="1">
         <v>7839</v>
       </c>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E49" s="33"/>
+      <c r="M48" s="1">
+        <v>30509</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E49" s="32"/>
       <c r="F49" s="6">
         <v>46</v>
       </c>
@@ -11293,10 +12096,12 @@
       <c r="L49" s="1">
         <v>7829</v>
       </c>
-      <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E50" s="33"/>
+      <c r="M49" s="1">
+        <v>30719</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="32"/>
       <c r="F50" s="6">
         <v>47</v>
       </c>
@@ -11318,10 +12123,12 @@
       <c r="L50" s="1">
         <v>7834</v>
       </c>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="33"/>
+      <c r="M50" s="1">
+        <v>30764</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="32"/>
       <c r="F51" s="6">
         <v>48</v>
       </c>
@@ -11343,10 +12150,12 @@
       <c r="L51" s="1">
         <v>7795</v>
       </c>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E52" s="33"/>
+      <c r="M51" s="1">
+        <v>30606</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="32"/>
       <c r="F52" s="6">
         <v>49</v>
       </c>
@@ -11368,10 +12177,12 @@
       <c r="L52" s="1">
         <v>7796</v>
       </c>
-      <c r="M52" s="14"/>
-    </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E53" s="33"/>
+      <c r="M52" s="1">
+        <v>30589</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E53" s="32"/>
       <c r="F53" s="6">
         <v>50</v>
       </c>
@@ -11393,10 +12204,12 @@
       <c r="L53" s="1">
         <v>7884</v>
       </c>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="33"/>
+      <c r="M53" s="1">
+        <v>30630</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="32"/>
       <c r="F54" s="6">
         <v>51</v>
       </c>
@@ -11418,10 +12231,12 @@
       <c r="L54" s="1">
         <v>7789</v>
       </c>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E55" s="33"/>
+      <c r="M54" s="1">
+        <v>30515</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="32"/>
       <c r="F55" s="6">
         <v>52</v>
       </c>
@@ -11443,10 +12258,12 @@
       <c r="L55" s="1">
         <v>7848</v>
       </c>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E56" s="33"/>
+      <c r="M55" s="1">
+        <v>30743</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E56" s="32"/>
       <c r="F56" s="6">
         <v>53</v>
       </c>
@@ -11468,10 +12285,12 @@
       <c r="L56" s="1">
         <v>7850</v>
       </c>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E57" s="33"/>
+      <c r="M56" s="1">
+        <v>30609</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E57" s="32"/>
       <c r="F57" s="6">
         <v>54</v>
       </c>
@@ -11493,10 +12312,12 @@
       <c r="L57" s="1">
         <v>7904</v>
       </c>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E58" s="33"/>
+      <c r="M57" s="1">
+        <v>30524</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E58" s="32"/>
       <c r="F58" s="6">
         <v>55</v>
       </c>
@@ -11518,10 +12339,12 @@
       <c r="L58" s="1">
         <v>7803</v>
       </c>
-      <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="33"/>
+      <c r="M58" s="1">
+        <v>30516</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E59" s="32"/>
       <c r="F59" s="6">
         <v>56</v>
       </c>
@@ -11543,10 +12366,12 @@
       <c r="L59" s="1">
         <v>7819</v>
       </c>
-      <c r="M59" s="14"/>
-    </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E60" s="33"/>
+      <c r="M59" s="1">
+        <v>30523</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E60" s="32"/>
       <c r="F60" s="6">
         <v>57</v>
       </c>
@@ -11568,10 +12393,12 @@
       <c r="L60" s="1">
         <v>7776</v>
       </c>
-      <c r="M60" s="14"/>
-    </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E61" s="33"/>
+      <c r="M60" s="1">
+        <v>30670</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E61" s="32"/>
       <c r="F61" s="6">
         <v>58</v>
       </c>
@@ -11593,10 +12420,12 @@
       <c r="L61" s="1">
         <v>7793</v>
       </c>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="33"/>
+      <c r="M61" s="1">
+        <v>30575</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E62" s="32"/>
       <c r="F62" s="6">
         <v>59</v>
       </c>
@@ -11618,10 +12447,12 @@
       <c r="L62" s="1">
         <v>7841</v>
       </c>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E63" s="33"/>
+      <c r="M62" s="1">
+        <v>30691</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E63" s="32"/>
       <c r="F63" s="6">
         <v>60</v>
       </c>
@@ -11643,10 +12474,12 @@
       <c r="L63" s="1">
         <v>7800</v>
       </c>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E64" s="33"/>
+      <c r="M63" s="1">
+        <v>30552</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E64" s="32"/>
       <c r="F64" s="6">
         <v>61</v>
       </c>
@@ -11668,10 +12501,12 @@
       <c r="L64" s="1">
         <v>7798</v>
       </c>
-      <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="33"/>
+      <c r="M64" s="1">
+        <v>30645</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E65" s="32"/>
       <c r="F65" s="6">
         <v>62</v>
       </c>
@@ -11693,10 +12528,12 @@
       <c r="L65" s="1">
         <v>7805</v>
       </c>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="33"/>
+      <c r="M65" s="1">
+        <v>30591</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E66" s="32"/>
       <c r="F66" s="6">
         <v>63</v>
       </c>
@@ -11718,10 +12555,12 @@
       <c r="L66" s="1">
         <v>7800</v>
       </c>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="33"/>
+      <c r="M66" s="1">
+        <v>30694</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E67" s="32"/>
       <c r="F67" s="6">
         <v>64</v>
       </c>
@@ -11743,10 +12582,12 @@
       <c r="L67" s="1">
         <v>7812</v>
       </c>
-      <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="33"/>
+      <c r="M67" s="1">
+        <v>30595</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E68" s="32"/>
       <c r="F68" s="6">
         <v>65</v>
       </c>
@@ -11768,10 +12609,12 @@
       <c r="L68" s="1">
         <v>7841</v>
       </c>
-      <c r="M68" s="14"/>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E69" s="33"/>
+      <c r="M68" s="1">
+        <v>30661</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E69" s="32"/>
       <c r="F69" s="6">
         <v>66</v>
       </c>
@@ -11793,10 +12636,12 @@
       <c r="L69" s="1">
         <v>7783</v>
       </c>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E70" s="33"/>
+      <c r="M69" s="1">
+        <v>30713</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E70" s="32"/>
       <c r="F70" s="6">
         <v>67</v>
       </c>
@@ -11818,10 +12663,12 @@
       <c r="L70" s="1">
         <v>7793</v>
       </c>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E71" s="33"/>
+      <c r="M70" s="1">
+        <v>30701</v>
+      </c>
+    </row>
+    <row r="71" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E71" s="32"/>
       <c r="F71" s="6">
         <v>68</v>
       </c>
@@ -11843,10 +12690,12 @@
       <c r="L71" s="1">
         <v>7836</v>
       </c>
-      <c r="M71" s="14"/>
-    </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E72" s="33"/>
+      <c r="M71" s="1">
+        <v>30603</v>
+      </c>
+    </row>
+    <row r="72" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E72" s="32"/>
       <c r="F72" s="6">
         <v>69</v>
       </c>
@@ -11868,10 +12717,12 @@
       <c r="L72" s="1">
         <v>7811</v>
       </c>
-      <c r="M72" s="14"/>
-    </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E73" s="33"/>
+      <c r="M72" s="1">
+        <v>30585</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E73" s="32"/>
       <c r="F73" s="6">
         <v>70</v>
       </c>
@@ -11893,10 +12744,12 @@
       <c r="L73" s="1">
         <v>7780</v>
       </c>
-      <c r="M73" s="14"/>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E74" s="33"/>
+      <c r="M73" s="1">
+        <v>30557</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E74" s="32"/>
       <c r="F74" s="6">
         <v>71</v>
       </c>
@@ -11918,10 +12771,12 @@
       <c r="L74" s="1">
         <v>7850</v>
       </c>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E75" s="33"/>
+      <c r="M74" s="1">
+        <v>30577</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E75" s="32"/>
       <c r="F75" s="6">
         <v>72</v>
       </c>
@@ -11943,10 +12798,12 @@
       <c r="L75" s="1">
         <v>7801</v>
       </c>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E76" s="33"/>
+      <c r="M75" s="1">
+        <v>30712</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E76" s="32"/>
       <c r="F76" s="6">
         <v>73</v>
       </c>
@@ -11968,10 +12825,12 @@
       <c r="L76" s="1">
         <v>7756</v>
       </c>
-      <c r="M76" s="14"/>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E77" s="33"/>
+      <c r="M76" s="1">
+        <v>30521</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E77" s="32"/>
       <c r="F77" s="6">
         <v>74</v>
       </c>
@@ -11993,10 +12852,12 @@
       <c r="L77" s="1">
         <v>7816</v>
       </c>
-      <c r="M77" s="14"/>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E78" s="33"/>
+      <c r="M77" s="1">
+        <v>30645</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E78" s="32"/>
       <c r="F78" s="6">
         <v>75</v>
       </c>
@@ -12018,10 +12879,12 @@
       <c r="L78" s="1">
         <v>7787</v>
       </c>
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E79" s="33"/>
+      <c r="M78" s="1">
+        <v>30634</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E79" s="32"/>
       <c r="F79" s="6">
         <v>76</v>
       </c>
@@ -12043,10 +12906,12 @@
       <c r="L79" s="1">
         <v>7850</v>
       </c>
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E80" s="33"/>
+      <c r="M79" s="1">
+        <v>30658</v>
+      </c>
+    </row>
+    <row r="80" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E80" s="32"/>
       <c r="F80" s="6">
         <v>77</v>
       </c>
@@ -12068,10 +12933,12 @@
       <c r="L80" s="1">
         <v>7820</v>
       </c>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="33"/>
+      <c r="M80" s="1">
+        <v>30585</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E81" s="32"/>
       <c r="F81" s="6">
         <v>78</v>
       </c>
@@ -12093,10 +12960,12 @@
       <c r="L81" s="1">
         <v>7845</v>
       </c>
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E82" s="33"/>
+      <c r="M81" s="1">
+        <v>30697</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E82" s="32"/>
       <c r="F82" s="6">
         <v>79</v>
       </c>
@@ -12118,10 +12987,12 @@
       <c r="L82" s="1">
         <v>7765</v>
       </c>
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E83" s="33"/>
+      <c r="M82" s="1">
+        <v>30690</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E83" s="32"/>
       <c r="F83" s="6">
         <v>80</v>
       </c>
@@ -12143,10 +13014,12 @@
       <c r="L83" s="1">
         <v>7793</v>
       </c>
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E84" s="33"/>
+      <c r="M83" s="1">
+        <v>30580</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E84" s="32"/>
       <c r="F84" s="6">
         <v>81</v>
       </c>
@@ -12168,10 +13041,12 @@
       <c r="L84" s="1">
         <v>7880</v>
       </c>
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E85" s="33"/>
+      <c r="M84" s="1">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E85" s="32"/>
       <c r="F85" s="6">
         <v>82</v>
       </c>
@@ -12193,10 +13068,12 @@
       <c r="L85" s="1">
         <v>7798</v>
       </c>
-      <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E86" s="33"/>
+      <c r="M85" s="1">
+        <v>30767</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E86" s="32"/>
       <c r="F86" s="6">
         <v>83</v>
       </c>
@@ -12218,10 +13095,12 @@
       <c r="L86" s="1">
         <v>7810</v>
       </c>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E87" s="33"/>
+      <c r="M86" s="1">
+        <v>30703</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E87" s="32"/>
       <c r="F87" s="6">
         <v>84</v>
       </c>
@@ -12243,10 +13122,12 @@
       <c r="L87" s="1">
         <v>7870</v>
       </c>
-      <c r="M87" s="14"/>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E88" s="33"/>
+      <c r="M87" s="1">
+        <v>30767</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E88" s="32"/>
       <c r="F88" s="6">
         <v>85</v>
       </c>
@@ -12268,10 +13149,12 @@
       <c r="L88" s="1">
         <v>7849</v>
       </c>
-      <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E89" s="33"/>
+      <c r="M88" s="1">
+        <v>30578</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E89" s="32"/>
       <c r="F89" s="6">
         <v>86</v>
       </c>
@@ -12293,10 +13176,12 @@
       <c r="L89" s="1">
         <v>7845</v>
       </c>
-      <c r="M89" s="14"/>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E90" s="33"/>
+      <c r="M89" s="1">
+        <v>30506</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E90" s="32"/>
       <c r="F90" s="6">
         <v>87</v>
       </c>
@@ -12318,10 +13203,12 @@
       <c r="L90" s="1">
         <v>7797</v>
       </c>
-      <c r="M90" s="14"/>
-    </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E91" s="33"/>
+      <c r="M90" s="1">
+        <v>30733</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E91" s="32"/>
       <c r="F91" s="6">
         <v>88</v>
       </c>
@@ -12343,10 +13230,12 @@
       <c r="L91" s="1">
         <v>7784</v>
       </c>
-      <c r="M91" s="14"/>
-    </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E92" s="33"/>
+      <c r="M91" s="1">
+        <v>30742</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E92" s="32"/>
       <c r="F92" s="6">
         <v>89</v>
       </c>
@@ -12368,10 +13257,12 @@
       <c r="L92" s="1">
         <v>7834</v>
       </c>
-      <c r="M92" s="14"/>
-    </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E93" s="33"/>
+      <c r="M92" s="1">
+        <v>30637</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E93" s="32"/>
       <c r="F93" s="6">
         <v>90</v>
       </c>
@@ -12393,10 +13284,12 @@
       <c r="L93" s="1">
         <v>7823</v>
       </c>
-      <c r="M93" s="14"/>
-    </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E94" s="33"/>
+      <c r="M93" s="1">
+        <v>30565</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E94" s="32"/>
       <c r="F94" s="6">
         <v>91</v>
       </c>
@@ -12418,10 +13311,12 @@
       <c r="L94" s="1">
         <v>7779</v>
       </c>
-      <c r="M94" s="14"/>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E95" s="33"/>
+      <c r="M94" s="1">
+        <v>30712</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E95" s="32"/>
       <c r="F95" s="6">
         <v>92</v>
       </c>
@@ -12443,10 +13338,12 @@
       <c r="L95" s="1">
         <v>7817</v>
       </c>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E96" s="33"/>
+      <c r="M95" s="1">
+        <v>30758</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E96" s="32"/>
       <c r="F96" s="6">
         <v>93</v>
       </c>
@@ -12468,10 +13365,12 @@
       <c r="L96" s="1">
         <v>7760</v>
       </c>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E97" s="33"/>
+      <c r="M96" s="1">
+        <v>30562</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E97" s="32"/>
       <c r="F97" s="6">
         <v>94</v>
       </c>
@@ -12493,10 +13392,12 @@
       <c r="L97" s="1">
         <v>7809</v>
       </c>
-      <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E98" s="33"/>
+      <c r="M97" s="1">
+        <v>30694</v>
+      </c>
+    </row>
+    <row r="98" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E98" s="32"/>
       <c r="F98" s="6">
         <v>95</v>
       </c>
@@ -12518,10 +13419,12 @@
       <c r="L98" s="1">
         <v>7832</v>
       </c>
-      <c r="M98" s="14"/>
-    </row>
-    <row r="99" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E99" s="33"/>
+      <c r="M98" s="1">
+        <v>30706</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E99" s="32"/>
       <c r="F99" s="6">
         <v>96</v>
       </c>
@@ -12543,10 +13446,12 @@
       <c r="L99" s="1">
         <v>7808</v>
       </c>
-      <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E100" s="33"/>
+      <c r="M99" s="1">
+        <v>30512</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E100" s="32"/>
       <c r="F100" s="6">
         <v>97</v>
       </c>
@@ -12568,10 +13473,12 @@
       <c r="L100" s="1">
         <v>7798</v>
       </c>
-      <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E101" s="33"/>
+      <c r="M100" s="1">
+        <v>30630</v>
+      </c>
+    </row>
+    <row r="101" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E101" s="32"/>
       <c r="F101" s="6">
         <v>98</v>
       </c>
@@ -12593,10 +13500,12 @@
       <c r="L101" s="1">
         <v>7801</v>
       </c>
-      <c r="M101" s="14"/>
-    </row>
-    <row r="102" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E102" s="33"/>
+      <c r="M101" s="1">
+        <v>30550</v>
+      </c>
+    </row>
+    <row r="102" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E102" s="32"/>
       <c r="F102" s="6">
         <v>99</v>
       </c>
@@ -12618,10 +13527,12 @@
       <c r="L102" s="1">
         <v>7807</v>
       </c>
-      <c r="M102" s="14"/>
-    </row>
-    <row r="103" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E103" s="33"/>
+      <c r="M102" s="1">
+        <v>30573</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E103" s="32"/>
       <c r="F103" s="6">
         <v>100</v>
       </c>
@@ -12643,22 +13554,22 @@
       <c r="L103" s="1">
         <v>7875</v>
       </c>
-      <c r="M103" s="14"/>
-    </row>
-    <row r="104" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M103" s="1">
+        <v>30545</v>
+      </c>
+    </row>
+    <row r="104" spans="5:13" x14ac:dyDescent="0.3">
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q1:V1"/>
+  <mergeCells count="4">
     <mergeCell ref="G3:M3"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12669,60 +13580,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:V103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="21"/>
-    <col min="5" max="5" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="21"/>
-    <col min="9" max="9" width="9.140625" style="21" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="21"/>
-    <col min="16" max="16" width="16.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="21" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="21"/>
-    <col min="23" max="23" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="21"/>
+    <col min="4" max="4" width="12.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="21"/>
+    <col min="9" max="9" width="9.109375" style="21" customWidth="1"/>
+    <col min="10" max="15" width="9.109375" style="21"/>
+    <col min="16" max="16" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="21" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="21"/>
+    <col min="23" max="23" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -12782,7 +13694,7 @@
       </c>
       <c r="W2" s="25"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -12796,30 +13708,30 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>128</v>
       </c>
@@ -12877,7 +13789,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>256</v>
       </c>
@@ -12935,7 +13847,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>512</v>
       </c>
@@ -12993,7 +13905,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1024</v>
       </c>
@@ -13051,7 +13963,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2048</v>
       </c>
@@ -13109,7 +14021,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4096</v>
       </c>
@@ -13167,12 +14079,12 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="6">
         <v>7</v>
       </c>
@@ -13220,12 +14132,14 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -13273,12 +14187,17 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="33"/>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="6">
         <v>9</v>
       </c>
@@ -13326,14 +14245,20 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="6">
+        <v>64</v>
+      </c>
+      <c r="E13" s="36">
+        <f>_xlfn.STDEV.S(G4:G103)</f>
+        <v>4.5579877715119563</v>
+      </c>
       <c r="F13" s="6">
         <v>10</v>
       </c>
@@ -13381,15 +14306,21 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>250</v>
       </c>
       <c r="B14" s="7">
-        <f>AVERAGE(Q4:Q23)</f>
-        <v>3101.35</v>
-      </c>
-      <c r="E14" s="1"/>
+        <f>AVERAGE(Q4:Q103)</f>
+        <v>3126.17</v>
+      </c>
+      <c r="D14" s="6">
+        <v>128</v>
+      </c>
+      <c r="E14" s="36">
+        <f>_xlfn.STDEV.P(H4:H103)</f>
+        <v>4.889366012071501</v>
+      </c>
       <c r="F14" s="6">
         <v>11</v>
       </c>
@@ -13437,17 +14368,22 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>500</v>
       </c>
       <c r="B15" s="7">
-        <f>AVERAGE(R4:R23)</f>
-        <v>1180.8499999999999</v>
+        <f>AVERAGE(R4:R103)</f>
+        <v>1183.69</v>
       </c>
       <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="6">
+        <v>256</v>
+      </c>
+      <c r="E15" s="36">
+        <f>_xlfn.STDEV.P(I4:I103)</f>
+        <v>4.1820569101818679</v>
+      </c>
       <c r="F15" s="6">
         <v>12</v>
       </c>
@@ -13495,17 +14431,22 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>750</v>
       </c>
       <c r="B16" s="7">
-        <f>AVERAGE(S4:S23)</f>
-        <v>1050.5</v>
+        <f>AVERAGE(S4:S103)</f>
+        <v>1051.98</v>
       </c>
       <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="6">
+        <v>512</v>
+      </c>
+      <c r="E16" s="36">
+        <f>_xlfn.STDEV.P(J4:J103)</f>
+        <v>4.9844157129998719</v>
+      </c>
       <c r="F16" s="6">
         <v>13</v>
       </c>
@@ -13553,17 +14494,22 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>1000</v>
       </c>
       <c r="B17" s="7">
-        <f>AVERAGE(T4:T23)</f>
-        <v>1051.6500000000001</v>
+        <f>AVERAGE(T4:T103)</f>
+        <v>1058.97</v>
       </c>
       <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E17" s="36">
+        <f>_xlfn.STDEV.P(K4:K103)</f>
+        <v>4.7634441321380052</v>
+      </c>
       <c r="F17" s="6">
         <v>14</v>
       </c>
@@ -13611,17 +14557,22 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1250</v>
       </c>
       <c r="B18" s="7">
-        <f>AVERAGE(U4:U23)</f>
-        <v>1114.9000000000001</v>
+        <f>AVERAGE(U4:U103)</f>
+        <v>1117.77</v>
       </c>
       <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E18" s="36">
+        <f>_xlfn.STDEV.P(L4:L103)</f>
+        <v>12.65115014534252</v>
+      </c>
       <c r="F18" s="6">
         <v>15</v>
       </c>
@@ -13669,17 +14620,22 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1500</v>
       </c>
       <c r="B19" s="7">
-        <f>AVERAGE(V4:V23)</f>
-        <v>1255.25</v>
+        <f>AVERAGE(V4:V103)</f>
+        <v>1256.76</v>
       </c>
       <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E19" s="36">
+        <f>_xlfn.STDEV.P(M4:M103)</f>
+        <v>26.363884387548069</v>
+      </c>
       <c r="F19" s="6">
         <v>16</v>
       </c>
@@ -13727,7 +14683,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="7"/>
       <c r="C20"/>
@@ -13780,7 +14736,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -13833,7 +14789,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -13886,10 +14842,12 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6">
@@ -13939,10 +14897,16 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D24"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6">
@@ -13992,10 +14956,18 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>4</v>
+      </c>
+      <c r="B25" s="37">
+        <f>'[1]Seq. Results'!B4/'[1]Manual Threading'!B4</f>
+        <v>4.6029182646212847</v>
+      </c>
+      <c r="C25" s="38" t="e">
+        <f>B25/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="D25"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6">
@@ -14045,7 +15017,18 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="37">
+        <f>'[1]Seq. Results'!B5/'[1]Manual Threading'!B5</f>
+        <v>4.7106701356281846</v>
+      </c>
+      <c r="C26" s="39" t="e">
+        <f>B26/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="6">
         <v>23</v>
@@ -14094,7 +15077,18 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>16</v>
+      </c>
+      <c r="B27" s="37">
+        <f>'[1]Seq. Results'!B6/'[1]Manual Threading'!B6</f>
+        <v>4.8492850742198153</v>
+      </c>
+      <c r="C27" s="39" t="e">
+        <f>B27/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="6">
         <v>24</v>
@@ -14143,7 +15137,18 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>32</v>
+      </c>
+      <c r="B28" s="37">
+        <f>'[1]Seq. Results'!B7/'[1]Manual Threading'!B7</f>
+        <v>4.8671166527261764</v>
+      </c>
+      <c r="C28" s="39" t="e">
+        <f>B28/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="6">
         <v>25</v>
@@ -14192,7 +15197,18 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>64</v>
+      </c>
+      <c r="B29" s="37">
+        <f>'[1]Seq. Results'!B8/'[1]Manual Threading'!B8</f>
+        <v>4.8120552081086911</v>
+      </c>
+      <c r="C29" s="39" t="e">
+        <f>B29/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="6">
         <v>26</v>
@@ -14241,7 +15257,18 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>128</v>
+      </c>
+      <c r="B30" s="37">
+        <f>'[1]Seq. Results'!B9/'[1]Manual Threading'!B9</f>
+        <v>4.7611160133111214</v>
+      </c>
+      <c r="C30" s="39" t="e">
+        <f>B30/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="6">
         <v>27</v>
@@ -14290,7 +15317,18 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>256</v>
+      </c>
+      <c r="B31" s="37">
+        <f>'[1]Seq. Results'!B10/'[1]Manual Threading'!B10</f>
+        <v>4.6812327506899729</v>
+      </c>
+      <c r="C31" s="39" t="e">
+        <f>B31/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>28</v>
@@ -14339,7 +15377,18 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>512</v>
+      </c>
+      <c r="B32" s="37" t="e">
+        <f>'[1]Seq. Results'!B11/'[1]Manual Threading'!B11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="39" t="e">
+        <f>B32/B21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -14388,7 +15437,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>30</v>
@@ -14437,7 +15486,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="6">
         <v>31</v>
@@ -14486,7 +15535,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="6">
         <v>32</v>
@@ -14535,7 +15584,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="6">
         <v>33</v>
@@ -14584,7 +15633,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="6">
         <v>34</v>
@@ -14633,7 +15682,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="6">
         <v>35</v>
@@ -14682,7 +15731,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
         <v>36</v>
       </c>
@@ -14729,7 +15778,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F40" s="6">
         <v>37</v>
       </c>
@@ -14776,7 +15825,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
         <v>38</v>
       </c>
@@ -14823,7 +15872,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -14870,7 +15919,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
         <v>40</v>
       </c>
@@ -14917,7 +15966,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F44" s="6">
         <v>41</v>
       </c>
@@ -14964,7 +16013,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>42</v>
       </c>
@@ -15011,7 +16060,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="46" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
         <v>43</v>
       </c>
@@ -15058,7 +16107,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="47" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F47" s="6">
         <v>44</v>
       </c>
@@ -15105,7 +16154,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="48" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:22" x14ac:dyDescent="0.3">
       <c r="F48" s="6">
         <v>45</v>
       </c>
@@ -15152,7 +16201,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F49" s="6">
         <v>46</v>
       </c>
@@ -15199,7 +16248,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F50" s="6">
         <v>47</v>
       </c>
@@ -15246,7 +16295,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
         <v>48</v>
       </c>
@@ -15293,7 +16342,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F52" s="6">
         <v>49</v>
       </c>
@@ -15340,7 +16389,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
         <v>50</v>
       </c>
@@ -15387,7 +16436,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F54" s="6">
         <v>51</v>
       </c>
@@ -15434,7 +16483,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F55" s="6">
         <v>52</v>
       </c>
@@ -15481,7 +16530,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F56" s="6">
         <v>53</v>
       </c>
@@ -15528,7 +16577,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F57" s="6">
         <v>54</v>
       </c>
@@ -15575,7 +16624,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F58" s="6">
         <v>55</v>
       </c>
@@ -15622,7 +16671,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F59" s="6">
         <v>56</v>
       </c>
@@ -15669,7 +16718,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F60" s="6">
         <v>57</v>
       </c>
@@ -15716,7 +16765,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F61" s="6">
         <v>58</v>
       </c>
@@ -15763,7 +16812,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F62" s="6">
         <v>59</v>
       </c>
@@ -15810,7 +16859,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F63" s="6">
         <v>60</v>
       </c>
@@ -15857,7 +16906,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F64" s="6">
         <v>61</v>
       </c>
@@ -15904,7 +16953,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F65" s="6">
         <v>62</v>
       </c>
@@ -15951,7 +17000,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F66" s="6">
         <v>63</v>
       </c>
@@ -15998,7 +17047,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F67" s="6">
         <v>64</v>
       </c>
@@ -16045,7 +17094,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F68" s="6">
         <v>65</v>
       </c>
@@ -16092,7 +17141,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F69" s="6">
         <v>66</v>
       </c>
@@ -16139,7 +17188,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F70" s="6">
         <v>67</v>
       </c>
@@ -16186,7 +17235,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F71" s="6">
         <v>68</v>
       </c>
@@ -16233,7 +17282,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F72" s="6">
         <v>69</v>
       </c>
@@ -16280,7 +17329,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F73" s="6">
         <v>70</v>
       </c>
@@ -16327,7 +17376,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F74" s="6">
         <v>71</v>
       </c>
@@ -16374,7 +17423,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F75" s="6">
         <v>72</v>
       </c>
@@ -16421,7 +17470,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F76" s="6">
         <v>73</v>
       </c>
@@ -16468,7 +17517,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F77" s="6">
         <v>74</v>
       </c>
@@ -16515,7 +17564,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F78" s="6">
         <v>75</v>
       </c>
@@ -16562,7 +17611,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F79" s="6">
         <v>76</v>
       </c>
@@ -16609,7 +17658,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F80" s="6">
         <v>77</v>
       </c>
@@ -16656,7 +17705,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F81" s="6">
         <v>78</v>
       </c>
@@ -16703,7 +17752,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F82" s="6">
         <v>79</v>
       </c>
@@ -16750,7 +17799,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F83" s="6">
         <v>80</v>
       </c>
@@ -16797,7 +17846,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F84" s="6">
         <v>81</v>
       </c>
@@ -16844,7 +17893,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F85" s="6">
         <v>82</v>
       </c>
@@ -16891,7 +17940,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F86" s="6">
         <v>83</v>
       </c>
@@ -16938,7 +17987,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F87" s="6">
         <v>84</v>
       </c>
@@ -16985,7 +18034,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F88" s="6">
         <v>85</v>
       </c>
@@ -17032,7 +18081,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F89" s="6">
         <v>86</v>
       </c>
@@ -17079,7 +18128,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F90" s="6">
         <v>87</v>
       </c>
@@ -17126,7 +18175,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F91" s="6">
         <v>88</v>
       </c>
@@ -17173,7 +18222,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F92" s="6">
         <v>89</v>
       </c>
@@ -17220,7 +18269,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F93" s="6">
         <v>90</v>
       </c>
@@ -17267,7 +18316,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F94" s="6">
         <v>91</v>
       </c>
@@ -17314,7 +18363,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F95" s="6">
         <v>92</v>
       </c>
@@ -17361,7 +18410,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F96" s="6">
         <v>93</v>
       </c>
@@ -17408,7 +18457,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F97" s="6">
         <v>94</v>
       </c>
@@ -17455,7 +18504,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="98" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F98" s="6">
         <v>95</v>
       </c>
@@ -17502,7 +18551,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="99" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F99" s="6">
         <v>96</v>
       </c>
@@ -17549,7 +18598,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="100" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F100" s="6">
         <v>97</v>
       </c>
@@ -17596,7 +18645,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="101" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F101" s="6">
         <v>98</v>
       </c>
@@ -17643,7 +18692,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="102" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F102" s="6">
         <v>99</v>
       </c>
@@ -17690,7 +18739,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="103" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F103" s="6">
         <v>100</v>
       </c>
@@ -17738,13 +18787,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17758,28 +18809,28 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="14"/>
@@ -17832,7 +18883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -17862,13 +18913,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="18">
         <f>AVERAGE('Seq. Results'!K4:K103)</f>
-        <v>5120.46</v>
+        <v>5119.45</v>
       </c>
       <c r="D4" s="1"/>
       <c r="J4" t="s">
@@ -18007,7 +19058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
@@ -18132,7 +19183,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
@@ -18257,7 +19308,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
@@ -18382,7 +19433,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="K8" s="1">
@@ -18502,7 +19553,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="K9" s="1">
         <v>5</v>
       </c>
@@ -18620,12 +19671,12 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="17"/>
       <c r="K10" s="1">
         <v>6</v>
@@ -18744,7 +19795,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -18872,14 +19923,14 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="17"/>
       <c r="K12" s="1">
         <v>8</v>
@@ -18998,7 +20049,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
@@ -19128,7 +20179,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
@@ -19258,7 +20309,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>29</v>
       </c>
@@ -19387,7 +20438,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="K16" s="1">
         <v>12</v>
       </c>
@@ -19505,7 +20556,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K17" s="1">
         <v>13</v>
       </c>
@@ -19623,7 +20674,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K18" s="1">
         <v>14</v>
       </c>
@@ -19741,7 +20792,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
@@ -19862,7 +20913,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>27</v>
       </c>
@@ -19983,7 +21034,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
@@ -20104,7 +21155,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
@@ -20225,7 +21276,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K23" s="1">
         <v>19</v>
       </c>
@@ -20343,7 +21394,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K24" s="1">
         <v>20</v>
       </c>
@@ -20461,7 +21512,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K25" s="1">
         <v>21</v>
       </c>
@@ -20579,7 +21630,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K26" s="1">
         <v>22</v>
       </c>
@@ -20697,7 +21748,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K27" s="1">
         <v>23</v>
       </c>
@@ -20815,7 +21866,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K28" s="1">
         <v>24</v>
       </c>
@@ -20933,7 +21984,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K29" s="1">
         <v>25</v>
       </c>
@@ -21051,7 +22102,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K30" s="1">
         <v>26</v>
       </c>
@@ -21169,7 +22220,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K31" s="1">
         <v>27</v>
       </c>
@@ -21287,7 +22338,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K32" s="1">
         <v>28</v>
       </c>
@@ -21405,7 +22456,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="33" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K33" s="1">
         <v>29</v>
       </c>
@@ -21523,7 +22574,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="34" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K34" s="1">
         <v>30</v>
       </c>
@@ -21641,7 +22692,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="35" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K35" s="1">
         <v>31</v>
       </c>
@@ -21759,7 +22810,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="36" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K36" s="1">
         <v>32</v>
       </c>
@@ -21877,7 +22928,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="37" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K37" s="1">
         <v>33</v>
       </c>
@@ -21995,7 +23046,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="38" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K38" s="1">
         <v>34</v>
       </c>
@@ -22113,7 +23164,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="39" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K39" s="1">
         <v>35</v>
       </c>
@@ -22231,7 +23282,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="40" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K40" s="1">
         <v>36</v>
       </c>
@@ -22349,7 +23400,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="41" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K41" s="1">
         <v>37</v>
       </c>
@@ -22467,7 +23518,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="42" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K42" s="1">
         <v>38</v>
       </c>
@@ -22585,7 +23636,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="43" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K43" s="1">
         <v>39</v>
       </c>
@@ -22703,7 +23754,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="44" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K44" s="1">
         <v>40</v>
       </c>
@@ -22821,7 +23872,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="45" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K45" s="1">
         <v>41</v>
       </c>
@@ -22939,7 +23990,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="46" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K46" s="1">
         <v>42</v>
       </c>
@@ -23057,7 +24108,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="47" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K47" s="1">
         <v>43</v>
       </c>
@@ -23175,7 +24226,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="48" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K48" s="1">
         <v>44</v>
       </c>
@@ -23293,7 +24344,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="49" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K49" s="1">
         <v>45</v>
       </c>
@@ -23411,7 +24462,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="50" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K50" s="1">
         <v>46</v>
       </c>
@@ -23529,7 +24580,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="51" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K51" s="1">
         <v>47</v>
       </c>
@@ -23647,7 +24698,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="52" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K52" s="1">
         <v>48</v>
       </c>
@@ -23765,7 +24816,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="53" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K53" s="1">
         <v>49</v>
       </c>
@@ -23883,7 +24934,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="54" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K54" s="1">
         <v>50</v>
       </c>
@@ -24001,7 +25052,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="55" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:54" x14ac:dyDescent="0.3">
       <c r="M55" t="s">
         <v>13</v>
       </c>
@@ -24029,7 +25080,7 @@
         <v>11957.8</v>
       </c>
     </row>
-    <row r="56" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
         <v>10</v>
       </c>
@@ -24046,7 +25097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K57" t="s">
         <v>6</v>
       </c>
@@ -24069,7 +25120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K58">
         <v>1</v>
       </c>
@@ -24110,7 +25161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K59">
         <v>2</v>
       </c>
@@ -24148,7 +25199,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="60" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K60">
         <v>3</v>
       </c>
@@ -24186,7 +25237,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="61" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K61">
         <v>4</v>
       </c>
@@ -24224,7 +25275,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="62" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K62">
         <v>5</v>
       </c>
@@ -24262,7 +25313,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="63" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K63">
         <v>6</v>
       </c>
@@ -24300,7 +25351,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="64" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K64">
         <v>7</v>
       </c>
@@ -24338,7 +25389,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="65" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K65">
         <v>8</v>
       </c>
@@ -24376,7 +25427,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="66" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K66">
         <v>9</v>
       </c>
@@ -24414,7 +25465,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="67" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K67">
         <v>10</v>
       </c>
@@ -24452,7 +25503,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="68" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K68">
         <v>11</v>
       </c>
@@ -24490,7 +25541,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="69" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K69">
         <v>12</v>
       </c>
@@ -24528,7 +25579,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="70" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K70">
         <v>13</v>
       </c>
@@ -24566,7 +25617,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="71" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K71">
         <v>14</v>
       </c>
@@ -24604,7 +25655,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="72" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K72">
         <v>15</v>
       </c>
@@ -24642,7 +25693,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="73" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K73">
         <v>16</v>
       </c>
@@ -24680,7 +25731,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="74" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K74">
         <v>17</v>
       </c>
@@ -24718,7 +25769,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="75" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K75">
         <v>18</v>
       </c>
@@ -24756,7 +25807,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="76" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K76">
         <v>19</v>
       </c>
@@ -24794,7 +25845,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="77" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K77">
         <v>20</v>
       </c>
@@ -24832,7 +25883,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="78" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K78">
         <v>21</v>
       </c>
@@ -24870,7 +25921,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="79" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K79">
         <v>22</v>
       </c>
@@ -24908,7 +25959,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="80" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K80">
         <v>23</v>
       </c>
@@ -24946,7 +25997,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="81" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K81">
         <v>24</v>
       </c>
@@ -24984,7 +26035,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="82" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K82">
         <v>25</v>
       </c>
@@ -25022,7 +26073,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="83" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K83">
         <v>26</v>
       </c>
@@ -25060,7 +26111,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="84" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K84">
         <v>27</v>
       </c>
@@ -25098,7 +26149,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="85" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K85">
         <v>28</v>
       </c>
@@ -25136,7 +26187,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="86" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K86">
         <v>29</v>
       </c>
@@ -25174,7 +26225,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="87" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K87">
         <v>30</v>
       </c>
@@ -25212,7 +26263,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="88" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K88">
         <v>31</v>
       </c>
@@ -25250,7 +26301,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="89" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K89">
         <v>32</v>
       </c>
@@ -25288,7 +26339,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="90" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K90">
         <v>33</v>
       </c>
@@ -25326,7 +26377,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="91" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K91">
         <v>34</v>
       </c>
@@ -25364,7 +26415,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="92" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K92">
         <v>35</v>
       </c>
@@ -25402,7 +26453,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="93" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K93">
         <v>36</v>
       </c>
@@ -25440,7 +26491,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="94" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K94">
         <v>37</v>
       </c>
@@ -25478,7 +26529,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="95" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K95">
         <v>38</v>
       </c>
@@ -25516,7 +26567,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="96" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K96">
         <v>39</v>
       </c>
@@ -25554,7 +26605,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="97" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K97">
         <v>40</v>
       </c>
@@ -25592,7 +26643,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="98" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K98">
         <v>41</v>
       </c>
@@ -25630,7 +26681,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="99" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K99">
         <v>42</v>
       </c>
@@ -25668,7 +26719,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="100" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K100">
         <v>43</v>
       </c>
@@ -25706,7 +26757,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="101" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K101">
         <v>44</v>
       </c>
@@ -25744,7 +26795,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="102" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K102">
         <v>45</v>
       </c>
@@ -25782,7 +26833,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="103" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K103">
         <v>46</v>
       </c>
@@ -25820,7 +26871,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="104" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K104">
         <v>47</v>
       </c>
@@ -25858,7 +26909,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K105">
         <v>48</v>
       </c>
@@ -25896,7 +26947,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="106" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K106">
         <v>49</v>
       </c>
@@ -25934,7 +26985,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="107" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K107">
         <v>50</v>
       </c>
@@ -25972,7 +27023,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="108" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:54" x14ac:dyDescent="0.3">
       <c r="M108" t="s">
         <v>13</v>
       </c>
@@ -26005,12 +27056,12 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="109" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K110" t="s">
         <v>6</v>
       </c>
@@ -26033,7 +27084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K111">
         <v>1</v>
       </c>
@@ -26047,7 +27098,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="112" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K112">
         <v>2</v>
       </c>
@@ -26076,7 +27127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K113">
         <v>3</v>
       </c>
@@ -26102,7 +27153,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="114" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K114">
         <v>4</v>
       </c>
@@ -26128,7 +27179,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="115" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="115" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K115">
         <v>5</v>
       </c>
@@ -26154,7 +27205,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="116" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="116" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K116">
         <v>6</v>
       </c>
@@ -26180,7 +27231,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="117" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K117">
         <v>7</v>
       </c>
@@ -26206,7 +27257,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="118" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K118">
         <v>8</v>
       </c>
@@ -26232,7 +27283,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="119" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K119">
         <v>9</v>
       </c>
@@ -26258,7 +27309,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="120" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K120">
         <v>10</v>
       </c>
@@ -26284,7 +27335,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="121" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K121">
         <v>11</v>
       </c>
@@ -26310,7 +27361,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="122" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K122">
         <v>12</v>
       </c>
@@ -26336,7 +27387,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="123" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K123">
         <v>13</v>
       </c>
@@ -26362,7 +27413,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="124" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K124">
         <v>14</v>
       </c>
@@ -26388,7 +27439,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="125" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K125">
         <v>15</v>
       </c>
@@ -26414,7 +27465,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="126" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K126">
         <v>16</v>
       </c>
@@ -26440,7 +27491,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="127" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K127">
         <v>17</v>
       </c>
@@ -26466,7 +27517,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="128" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K128">
         <v>18</v>
       </c>
@@ -26492,7 +27543,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="129" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K129">
         <v>19</v>
       </c>
@@ -26518,7 +27569,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="130" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K130">
         <v>20</v>
       </c>
@@ -26544,7 +27595,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="131" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="131" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K131">
         <v>21</v>
       </c>
@@ -26570,7 +27621,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="132" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="132" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K132">
         <v>22</v>
       </c>
@@ -26596,7 +27647,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="133" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="133" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K133">
         <v>23</v>
       </c>
@@ -26622,7 +27673,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="134" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="134" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K134">
         <v>24</v>
       </c>
@@ -26648,7 +27699,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="135" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="135" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K135">
         <v>25</v>
       </c>
@@ -26674,7 +27725,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="136" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="136" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K136">
         <v>26</v>
       </c>
@@ -26700,7 +27751,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="137" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="137" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K137">
         <v>27</v>
       </c>
@@ -26726,7 +27777,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="138" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="138" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K138">
         <v>28</v>
       </c>
@@ -26752,7 +27803,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="139" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="139" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K139">
         <v>29</v>
       </c>
@@ -26778,7 +27829,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="140" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="140" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K140">
         <v>30</v>
       </c>
@@ -26804,7 +27855,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="141" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="141" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K141">
         <v>31</v>
       </c>
@@ -26830,7 +27881,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="142" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="142" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K142">
         <v>32</v>
       </c>
@@ -26856,7 +27907,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="143" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="143" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K143">
         <v>33</v>
       </c>
@@ -26882,7 +27933,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="144" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="144" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K144">
         <v>34</v>
       </c>
@@ -26908,7 +27959,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="145" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K145">
         <v>35</v>
       </c>
@@ -26934,7 +27985,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="146" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K146">
         <v>36</v>
       </c>
@@ -26960,7 +28011,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="147" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="147" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K147">
         <v>37</v>
       </c>
@@ -26986,7 +28037,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="148" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="148" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K148">
         <v>38</v>
       </c>
@@ -27012,7 +28063,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="149" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="149" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K149">
         <v>39</v>
       </c>
@@ -27038,7 +28089,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="150" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="150" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K150">
         <v>40</v>
       </c>
@@ -27064,7 +28115,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="151" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="151" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K151">
         <v>41</v>
       </c>
@@ -27090,7 +28141,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="152" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K152">
         <v>42</v>
       </c>
@@ -27116,7 +28167,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="153" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="153" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K153">
         <v>43</v>
       </c>
@@ -27142,7 +28193,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="154" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="154" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K154">
         <v>44</v>
       </c>
@@ -27168,7 +28219,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="155" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="155" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K155">
         <v>45</v>
       </c>
@@ -27194,7 +28245,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="156" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="156" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K156">
         <v>46</v>
       </c>
@@ -27220,7 +28271,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="157" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="157" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K157">
         <v>47</v>
       </c>
@@ -27246,7 +28297,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="158" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="158" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K158">
         <v>48</v>
       </c>
@@ -27272,7 +28323,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="159" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="159" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K159">
         <v>49</v>
       </c>
@@ -27298,7 +28349,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="160" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="160" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K160">
         <v>50</v>
       </c>
@@ -27324,7 +28375,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="161" spans="13:44" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:44" x14ac:dyDescent="0.3">
       <c r="M161" t="s">
         <v>13</v>
       </c>
@@ -27345,7 +28396,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="162" spans="13:44" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:44" x14ac:dyDescent="0.3">
       <c r="AO162">
         <v>50</v>
       </c>

--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beej\Documents\Work\C&amp;PS\Coursework\Concurrent-And-Parallel-Systems-CW\Coursework Part 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beej\Documents\Work\C&amp;PS\Concurrent-And-Parallel-Systems-CW\Coursework Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Seq Graph" sheetId="14" r:id="rId1"/>
@@ -844,15 +844,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,6 +854,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1131,9 @@
       <c:valAx>
         <c:axId val="539109520"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6368,7 +6370,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6424,7 +6426,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6280727"/>
+    <xdr:ext cx="8654716" cy="6272463"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6952,7 +6954,7 @@
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6977,32 +6979,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="37"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -7079,27 +7081,27 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -7507,10 +7509,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -7559,10 +7561,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
@@ -7626,7 +7628,7 @@
       <c r="D13" s="6">
         <v>64</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <f>_xlfn.STDEV.S(G4:G103)</f>
         <v>0.88642967896927705</v>
       </c>
@@ -7688,7 +7690,7 @@
       <c r="D14" s="6">
         <v>128</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="33">
         <f>_xlfn.STDEV.P(H4:H103)</f>
         <v>1.9165333286953303</v>
       </c>
@@ -7751,7 +7753,7 @@
       <c r="D15" s="6">
         <v>256</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="33">
         <f>_xlfn.STDEV.P(I4:I103)</f>
         <v>3.6821732713168225</v>
       </c>
@@ -7814,7 +7816,7 @@
       <c r="D16" s="6">
         <v>512</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="33">
         <f>_xlfn.STDEV.P(J4:J103)</f>
         <v>8.0935221010385856</v>
       </c>
@@ -7877,7 +7879,7 @@
       <c r="D17" s="6">
         <v>1024</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="33">
         <f>_xlfn.STDEV.P(K4:K103)</f>
         <v>17.878129096748353</v>
       </c>
@@ -7940,7 +7942,7 @@
       <c r="D18" s="6">
         <v>2048</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="33">
         <f>_xlfn.STDEV.P(L4:L103)</f>
         <v>26.909438864457961</v>
       </c>
@@ -8003,7 +8005,7 @@
       <c r="D19" s="6">
         <v>4096</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="33">
         <f>_xlfn.STDEV.P(M4:M103)</f>
         <v>106.66347828568124</v>
       </c>
@@ -10427,23 +10429,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="37"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
@@ -10511,15 +10513,15 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="O3" s="10"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="21"/>
@@ -10843,10 +10845,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -10930,7 +10932,7 @@
       <c r="D13" s="6">
         <v>64</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <f>_xlfn.STDEV.S(G4:G103)</f>
         <v>4.9347663766301233</v>
       </c>
@@ -10975,7 +10977,7 @@
       <c r="D14" s="6">
         <v>128</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="33">
         <f>_xlfn.STDEV.P(H4:H103)</f>
         <v>2.8484908284914683</v>
       </c>
@@ -11020,7 +11022,7 @@
       <c r="D15" s="6">
         <v>256</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="33">
         <f>_xlfn.STDEV.P(I4:I103)</f>
         <v>4.0204974816557204</v>
       </c>
@@ -11065,7 +11067,7 @@
       <c r="D16" s="6">
         <v>512</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="33">
         <f>_xlfn.STDEV.P(J4:J103)</f>
         <v>6.6033627796752139</v>
       </c>
@@ -11110,7 +11112,7 @@
       <c r="D17" s="6">
         <v>1024</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="33">
         <f>_xlfn.STDEV.P(K4:K103)</f>
         <v>14.427539637789939</v>
       </c>
@@ -11155,7 +11157,7 @@
       <c r="D18" s="6">
         <v>2048</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="33">
         <f>_xlfn.STDEV.P(L4:L103)</f>
         <v>34.954969603763068</v>
       </c>
@@ -11200,7 +11202,7 @@
       <c r="D19" s="6">
         <v>4096</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="33">
         <f>_xlfn.STDEV.P(M4:M103)</f>
         <v>82.886232270504365</v>
       </c>
@@ -13606,32 +13608,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="37"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -13708,27 +13710,27 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -14136,10 +14138,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -14188,10 +14190,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
@@ -14255,7 +14257,7 @@
       <c r="D13" s="6">
         <v>64</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <f>_xlfn.STDEV.S(G4:G103)</f>
         <v>4.5579877715119563</v>
       </c>
@@ -14317,7 +14319,7 @@
       <c r="D14" s="6">
         <v>128</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="33">
         <f>_xlfn.STDEV.P(H4:H103)</f>
         <v>4.889366012071501</v>
       </c>
@@ -14380,7 +14382,7 @@
       <c r="D15" s="6">
         <v>256</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="33">
         <f>_xlfn.STDEV.P(I4:I103)</f>
         <v>4.1820569101818679</v>
       </c>
@@ -14443,7 +14445,7 @@
       <c r="D16" s="6">
         <v>512</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="33">
         <f>_xlfn.STDEV.P(J4:J103)</f>
         <v>4.9844157129998719</v>
       </c>
@@ -14506,7 +14508,7 @@
       <c r="D17" s="6">
         <v>1024</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="33">
         <f>_xlfn.STDEV.P(K4:K103)</f>
         <v>4.7634441321380052</v>
       </c>
@@ -14569,7 +14571,7 @@
       <c r="D18" s="6">
         <v>2048</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="33">
         <f>_xlfn.STDEV.P(L4:L103)</f>
         <v>12.65115014534252</v>
       </c>
@@ -14632,7 +14634,7 @@
       <c r="D19" s="6">
         <v>4096</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="33">
         <f>_xlfn.STDEV.P(M4:M103)</f>
         <v>26.363884387548069</v>
       </c>
@@ -14843,11 +14845,11 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6">
@@ -14960,11 +14962,11 @@
       <c r="A25" s="6">
         <v>4</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="34">
         <f>'[1]Seq. Results'!B4/'[1]Manual Threading'!B4</f>
         <v>4.6029182646212847</v>
       </c>
-      <c r="C25" s="38" t="e">
+      <c r="C25" s="35" t="e">
         <f>B25/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15021,11 +15023,11 @@
       <c r="A26" s="6">
         <v>8</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="34">
         <f>'[1]Seq. Results'!B5/'[1]Manual Threading'!B5</f>
         <v>4.7106701356281846</v>
       </c>
-      <c r="C26" s="39" t="e">
+      <c r="C26" s="36" t="e">
         <f>B26/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15081,11 +15083,11 @@
       <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="34">
         <f>'[1]Seq. Results'!B6/'[1]Manual Threading'!B6</f>
         <v>4.8492850742198153</v>
       </c>
-      <c r="C27" s="39" t="e">
+      <c r="C27" s="36" t="e">
         <f>B27/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15141,11 +15143,11 @@
       <c r="A28" s="6">
         <v>32</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="34">
         <f>'[1]Seq. Results'!B7/'[1]Manual Threading'!B7</f>
         <v>4.8671166527261764</v>
       </c>
-      <c r="C28" s="39" t="e">
+      <c r="C28" s="36" t="e">
         <f>B28/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15201,11 +15203,11 @@
       <c r="A29" s="6">
         <v>64</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="34">
         <f>'[1]Seq. Results'!B8/'[1]Manual Threading'!B8</f>
         <v>4.8120552081086911</v>
       </c>
-      <c r="C29" s="39" t="e">
+      <c r="C29" s="36" t="e">
         <f>B29/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15261,11 +15263,11 @@
       <c r="A30" s="6">
         <v>128</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <f>'[1]Seq. Results'!B9/'[1]Manual Threading'!B9</f>
         <v>4.7611160133111214</v>
       </c>
-      <c r="C30" s="39" t="e">
+      <c r="C30" s="36" t="e">
         <f>B30/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15321,11 +15323,11 @@
       <c r="A31" s="6">
         <v>256</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="34">
         <f>'[1]Seq. Results'!B10/'[1]Manual Threading'!B10</f>
         <v>4.6812327506899729</v>
       </c>
-      <c r="C31" s="39" t="e">
+      <c r="C31" s="36" t="e">
         <f>B31/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -15381,11 +15383,11 @@
       <c r="A32" s="6">
         <v>512</v>
       </c>
-      <c r="B32" s="37" t="e">
+      <c r="B32" s="34" t="e">
         <f>'[1]Seq. Results'!B11/'[1]Manual Threading'!B11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C32" s="39" t="e">
+      <c r="C32" s="36" t="e">
         <f>B32/B21</f>
         <v>#DIV/0!</v>
       </c>
@@ -18788,14 +18790,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="Q3:V3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:M1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="Q3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18821,12 +18823,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
@@ -19672,11 +19674,11 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="17"/>
       <c r="K10" s="1">
         <v>6</v>
@@ -19927,10 +19929,10 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="17"/>
       <c r="K12" s="1">
         <v>8</v>

--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\Concurrent-And-Parallel-Systems-CW\Coursework Part 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beej\Documents\Work\C&amp;PS\Concurrent-And-Parallel-Systems-CW\Coursework Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Comparison 4" sheetId="15" r:id="rId8"/>
     <sheet name="Seq Graph" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -823,15 +823,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,8 +833,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,14 +857,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -958,7 +958,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,7 +1069,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1273,7 +1271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1394,7 +1391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1534,7 +1530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1636,7 +1631,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1862,7 +1856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2002,7 +1995,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2544,7 +2536,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2666,7 +2657,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2747,7 +2737,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2844,7 +2833,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3256,7 +3244,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3377,7 +3364,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3458,7 +3444,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3530,7 +3515,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3593,10 +3577,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Seq. Results'!$A$3:$A$10</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Seq. Results'!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Seq. Results'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -3623,10 +3614,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Seq. Results'!$B$3:$B$10</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Seq. Results'!$B$3:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Seq. Results'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20.39</c:v>
                 </c:pt>
@@ -6564,7 +6562,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6610,7 +6608,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6621,13 +6619,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660876" cy="6294356"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6654,7 +6652,73 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660876" cy="6294356"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6683,77 +6747,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660876" cy="6294356"/>
+    <xdr:ext cx="8659091" cy="6280727"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660876" cy="6294356"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7042,60 +7046,60 @@
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="19"/>
-    <col min="4" max="4" width="12.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="19"/>
-    <col min="9" max="9" width="9.140625" style="19" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="19"/>
-    <col min="16" max="16" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="19" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="19"/>
-    <col min="23" max="23" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="19"/>
+    <col min="4" max="4" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="19"/>
+    <col min="9" max="9" width="9.109375" style="19" customWidth="1"/>
+    <col min="10" max="15" width="9.109375" style="19"/>
+    <col min="16" max="16" width="9.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="19" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="19"/>
+    <col min="23" max="23" width="9.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="43"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -7155,7 +7159,7 @@
       </c>
       <c r="W2" s="23"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -7169,30 +7173,30 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>128</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>7846</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>256</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>7793</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>512</v>
       </c>
@@ -7366,7 +7370,7 @@
         <v>7791</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1024</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>7827</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2048</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4096</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>7819</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10"/>
@@ -7593,14 +7597,14 @@
         <v>7814</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -7648,11 +7652,11 @@
         <v>7805</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>7781</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>250</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>500</v>
       </c>
@@ -7892,7 +7896,7 @@
         <v>7799</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>750</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>7771</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>1000</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>7794</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1250</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>7791</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1500</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>7804</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="7"/>
       <c r="C20"/>
@@ -8197,7 +8201,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -8250,7 +8254,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -8303,7 +8307,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -8356,7 +8360,7 @@
         <v>7789</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -8388,7 +8392,7 @@
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -8420,7 +8424,7 @@
       </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="6">
         <v>23</v>
@@ -8448,7 +8452,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="6">
         <v>24</v>
@@ -8476,7 +8480,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="6">
         <v>25</v>
@@ -8504,7 +8508,7 @@
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="6">
         <v>26</v>
@@ -8532,7 +8536,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="6">
         <v>27</v>
@@ -8560,7 +8564,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>28</v>
@@ -8588,7 +8592,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -8616,7 +8620,7 @@
       </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>30</v>
@@ -8644,7 +8648,7 @@
       </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="6">
         <v>31</v>
@@ -8672,7 +8676,7 @@
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="6">
         <v>32</v>
@@ -8700,7 +8704,7 @@
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="6">
         <v>33</v>
@@ -8728,7 +8732,7 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="6">
         <v>34</v>
@@ -8756,7 +8760,7 @@
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="6">
         <v>35</v>
@@ -8784,7 +8788,7 @@
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
         <v>36</v>
       </c>
@@ -8810,7 +8814,7 @@
         <v>80691</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F40" s="6">
         <v>37</v>
       </c>
@@ -8836,7 +8840,7 @@
         <v>80861</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
         <v>38</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>80766</v>
       </c>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>80886</v>
       </c>
     </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
         <v>40</v>
       </c>
@@ -8914,7 +8918,7 @@
         <v>80879</v>
       </c>
     </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F44" s="6">
         <v>41</v>
       </c>
@@ -8940,7 +8944,7 @@
         <v>80627</v>
       </c>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>42</v>
       </c>
@@ -8966,7 +8970,7 @@
         <v>81188</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
         <v>43</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>80892</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F47" s="6">
         <v>44</v>
       </c>
@@ -9018,7 +9022,7 @@
         <v>80883</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F48" s="6">
         <v>45</v>
       </c>
@@ -9044,7 +9048,7 @@
         <v>80638</v>
       </c>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F49" s="6">
         <v>46</v>
       </c>
@@ -9070,7 +9074,7 @@
         <v>80684</v>
       </c>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F50" s="6">
         <v>47</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>80887</v>
       </c>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
         <v>48</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>80700</v>
       </c>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F52" s="6">
         <v>49</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>80673</v>
       </c>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
         <v>50</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>80685</v>
       </c>
     </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F54" s="6">
         <v>51</v>
       </c>
@@ -9200,7 +9204,7 @@
         <v>80767</v>
       </c>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F55" s="6">
         <v>52</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>80639</v>
       </c>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F56" s="6">
         <v>53</v>
       </c>
@@ -9252,7 +9256,7 @@
         <v>80766</v>
       </c>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F57" s="6">
         <v>54</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>80810</v>
       </c>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F58" s="6">
         <v>55</v>
       </c>
@@ -9304,7 +9308,7 @@
         <v>80936</v>
       </c>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F59" s="6">
         <v>56</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>80938</v>
       </c>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F60" s="6">
         <v>57</v>
       </c>
@@ -9356,7 +9360,7 @@
         <v>80897</v>
       </c>
     </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F61" s="6">
         <v>58</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>80807</v>
       </c>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F62" s="6">
         <v>59</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>80627</v>
       </c>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F63" s="6">
         <v>60</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>80703</v>
       </c>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F64" s="6">
         <v>61</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>80712</v>
       </c>
     </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F65" s="6">
         <v>62</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>80753</v>
       </c>
     </row>
-    <row r="66" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F66" s="6">
         <v>63</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>80774</v>
       </c>
     </row>
-    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F67" s="6">
         <v>64</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>80865</v>
       </c>
     </row>
-    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F68" s="6">
         <v>65</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>80912</v>
       </c>
     </row>
-    <row r="69" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F69" s="6">
         <v>66</v>
       </c>
@@ -9590,7 +9594,7 @@
         <v>80725</v>
       </c>
     </row>
-    <row r="70" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F70" s="6">
         <v>67</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>80774</v>
       </c>
     </row>
-    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F71" s="6">
         <v>68</v>
       </c>
@@ -9642,7 +9646,7 @@
         <v>80681</v>
       </c>
     </row>
-    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F72" s="6">
         <v>69</v>
       </c>
@@ -9668,7 +9672,7 @@
         <v>80746</v>
       </c>
     </row>
-    <row r="73" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F73" s="6">
         <v>70</v>
       </c>
@@ -9694,7 +9698,7 @@
         <v>80660</v>
       </c>
     </row>
-    <row r="74" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F74" s="6">
         <v>71</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>80950</v>
       </c>
     </row>
-    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F75" s="6">
         <v>72</v>
       </c>
@@ -9746,7 +9750,7 @@
         <v>80844</v>
       </c>
     </row>
-    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F76" s="6">
         <v>73</v>
       </c>
@@ -9772,7 +9776,7 @@
         <v>80902</v>
       </c>
     </row>
-    <row r="77" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F77" s="6">
         <v>74</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>80838</v>
       </c>
     </row>
-    <row r="78" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F78" s="6">
         <v>75</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>80765</v>
       </c>
     </row>
-    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F79" s="6">
         <v>76</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>80945</v>
       </c>
     </row>
-    <row r="80" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F80" s="6">
         <v>77</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>80835</v>
       </c>
     </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F81" s="6">
         <v>78</v>
       </c>
@@ -9902,7 +9906,7 @@
         <v>80863</v>
       </c>
     </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F82" s="6">
         <v>79</v>
       </c>
@@ -9928,7 +9932,7 @@
         <v>80798</v>
       </c>
     </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F83" s="6">
         <v>80</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>80767</v>
       </c>
     </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F84" s="6">
         <v>81</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>80641</v>
       </c>
     </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F85" s="6">
         <v>82</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>80648</v>
       </c>
     </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F86" s="6">
         <v>83</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>80833</v>
       </c>
     </row>
-    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F87" s="6">
         <v>84</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>80847</v>
       </c>
     </row>
-    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F88" s="6">
         <v>85</v>
       </c>
@@ -10084,7 +10088,7 @@
         <v>80763</v>
       </c>
     </row>
-    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F89" s="6">
         <v>86</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>80690</v>
       </c>
     </row>
-    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F90" s="6">
         <v>87</v>
       </c>
@@ -10136,7 +10140,7 @@
         <v>80652</v>
       </c>
     </row>
-    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F91" s="6">
         <v>88</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>80782</v>
       </c>
     </row>
-    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F92" s="6">
         <v>89</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>80832</v>
       </c>
     </row>
-    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F93" s="6">
         <v>90</v>
       </c>
@@ -10214,7 +10218,7 @@
         <v>80753</v>
       </c>
     </row>
-    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F94" s="6">
         <v>91</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>80909</v>
       </c>
     </row>
-    <row r="95" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F95" s="6">
         <v>92</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>80917</v>
       </c>
     </row>
-    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F96" s="6">
         <v>93</v>
       </c>
@@ -10292,7 +10296,7 @@
         <v>80884</v>
       </c>
     </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F97" s="6">
         <v>94</v>
       </c>
@@ -10318,7 +10322,7 @@
         <v>80922</v>
       </c>
     </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F98" s="6">
         <v>95</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>80738</v>
       </c>
     </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F99" s="6">
         <v>96</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>80671</v>
       </c>
     </row>
-    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F100" s="6">
         <v>97</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>80870</v>
       </c>
     </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F101" s="6">
         <v>98</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>80742</v>
       </c>
     </row>
-    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F102" s="6">
         <v>99</v>
       </c>
@@ -10448,7 +10452,7 @@
         <v>80627</v>
       </c>
     </row>
-    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F103" s="6">
         <v>100</v>
       </c>
@@ -10493,47 +10497,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="9.140625" style="17"/>
-    <col min="15" max="15" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="17" customWidth="1"/>
-    <col min="18" max="23" width="9.140625" style="17"/>
-    <col min="24" max="24" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="17.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="9.109375" style="17"/>
+    <col min="15" max="15" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="17" customWidth="1"/>
+    <col min="18" max="23" width="9.109375" style="17"/>
+    <col min="24" max="24" width="17.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="43"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -10541,7 +10545,7 @@
       <c r="U1" s="19"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10587,7 +10591,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -10601,15 +10605,15 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="O3" s="10"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="19"/>
@@ -10619,7 +10623,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>128</v>
       </c>
@@ -10664,7 +10668,7 @@
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>256</v>
       </c>
@@ -10709,7 +10713,7 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>512</v>
       </c>
@@ -10754,7 +10758,7 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1024</v>
       </c>
@@ -10799,7 +10803,7 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2048</v>
       </c>
@@ -10844,7 +10848,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4096</v>
       </c>
@@ -10889,7 +10893,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10"/>
@@ -10929,14 +10933,14 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -10971,7 +10975,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -11013,7 +11017,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="19"/>
@@ -11058,7 +11062,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -11103,7 +11107,7 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="18"/>
       <c r="C15"/>
@@ -11148,7 +11152,7 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="18"/>
       <c r="C16"/>
@@ -11193,7 +11197,7 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17"/>
@@ -11238,7 +11242,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="18"/>
       <c r="C18"/>
@@ -11283,7 +11287,7 @@
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
       <c r="C19"/>
@@ -11328,8 +11332,8 @@
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1">
@@ -11372,7 +11376,7 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -11412,12 +11416,12 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6">
@@ -11454,7 +11458,7 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -11500,7 +11504,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>64</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>30528</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>128</v>
       </c>
@@ -11576,7 +11580,7 @@
         <v>30525</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>256</v>
       </c>
@@ -11614,7 +11618,7 @@
         <v>30651</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>512</v>
       </c>
@@ -11652,7 +11656,7 @@
         <v>30606</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>1024</v>
       </c>
@@ -11690,7 +11694,7 @@
         <v>30659</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>2048</v>
       </c>
@@ -11728,7 +11732,7 @@
         <v>30664</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>4096</v>
       </c>
@@ -11766,10 +11770,10 @@
         <v>30537</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="E31" s="29"/>
       <c r="F31" s="6">
         <v>28</v>
@@ -11796,7 +11800,7 @@
         <v>30532</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E32" s="29"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -11823,11 +11827,11 @@
         <v>30532</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="43"/>
       <c r="E33" s="29"/>
       <c r="F33" s="6">
         <v>30</v>
@@ -11854,7 +11858,7 @@
         <v>30741</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -11887,12 +11891,12 @@
         <v>30737</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="16">
         <f>('Seq. Results'!B3+'Seq. Results'!E13)/(B3-E13) - B24</f>
         <v>0.70258118667418334</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="42">
         <f>B24-('Seq. Results'!B3-'Seq. Results'!E13)/(B3+E13)</f>
         <v>0.36258474319194878</v>
       </c>
@@ -11922,12 +11926,12 @@
         <v>30589</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="16">
         <f>('Seq. Results'!B4+'Seq. Results'!E14)/(B4-E14) - B25</f>
         <v>0.16165805732390792</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="42">
         <f>B25-('Seq. Results'!B4-'Seq. Results'!E14)/(B4+E14)</f>
         <v>0.14273098063910172</v>
       </c>
@@ -11957,12 +11961,12 @@
         <v>30683</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16">
         <f>('Seq. Results'!B5+'Seq. Results'!E15)/(B5-E15) - B26</f>
         <v>8.5845150951798566E-2</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="42">
         <f>B26-('Seq. Results'!B5-'Seq. Results'!E15)/(B5+E15)</f>
         <v>8.1324073028856247E-2</v>
       </c>
@@ -11992,12 +11996,12 @@
         <v>30647</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="16">
         <f>('Seq. Results'!B6+'Seq. Results'!E16)/(B6-E16) - B27</f>
         <v>4.5619616129352281E-2</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="42">
         <f>B27-('Seq. Results'!B6-'Seq. Results'!E16)/(B6+E16)</f>
         <v>4.4504445655375591E-2</v>
       </c>
@@ -12027,12 +12031,12 @@
         <v>30657</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
         <f>('Seq. Results'!B7+'Seq. Results'!E17)/(B7-E17) - B28</f>
         <v>2.7423242309130291E-2</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="42">
         <f>B28-('Seq. Results'!B7-'Seq. Results'!E17)/(B7+E17)</f>
         <v>2.703194315890034E-2</v>
       </c>
@@ -12062,12 +12066,12 @@
         <v>30690</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
         <f>('Seq. Results'!B8+'Seq. Results'!E18)/(B8-E18) - B29</f>
         <v>1.5052984168606454E-2</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="42">
         <f>B29-('Seq. Results'!B8-'Seq. Results'!E18)/(B8+E18)</f>
         <v>1.4919011170357432E-2</v>
       </c>
@@ -12097,12 +12101,12 @@
         <v>30517</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="16">
         <f>('Seq. Results'!B9+'Seq. Results'!E19)/(B9-E19) - B30</f>
         <v>1.0649894364752832E-2</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="42">
         <f>B30-('Seq. Results'!B9-'Seq. Results'!E19)/(B9+E19)</f>
         <v>1.0592409712171236E-2</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>30748</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E42" s="29"/>
       <c r="F42" s="6">
         <v>39</v>
@@ -12159,7 +12163,7 @@
         <v>30763</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E43" s="29"/>
       <c r="F43" s="6">
         <v>40</v>
@@ -12186,7 +12190,7 @@
         <v>30531</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E44" s="29"/>
       <c r="F44" s="6">
         <v>41</v>
@@ -12213,7 +12217,7 @@
         <v>30541</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E45" s="29"/>
       <c r="F45" s="6">
         <v>42</v>
@@ -12240,7 +12244,7 @@
         <v>30524</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E46" s="29"/>
       <c r="F46" s="6">
         <v>43</v>
@@ -12267,7 +12271,7 @@
         <v>30570</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E47" s="29"/>
       <c r="F47" s="6">
         <v>44</v>
@@ -12294,7 +12298,7 @@
         <v>30751</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="29"/>
       <c r="F48" s="6">
         <v>45</v>
@@ -12321,7 +12325,7 @@
         <v>30509</v>
       </c>
     </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E49" s="29"/>
       <c r="F49" s="6">
         <v>46</v>
@@ -12348,7 +12352,7 @@
         <v>30719</v>
       </c>
     </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E50" s="29"/>
       <c r="F50" s="6">
         <v>47</v>
@@ -12375,7 +12379,7 @@
         <v>30764</v>
       </c>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E51" s="29"/>
       <c r="F51" s="6">
         <v>48</v>
@@ -12402,7 +12406,7 @@
         <v>30606</v>
       </c>
     </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E52" s="29"/>
       <c r="F52" s="6">
         <v>49</v>
@@ -12429,7 +12433,7 @@
         <v>30589</v>
       </c>
     </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E53" s="29"/>
       <c r="F53" s="6">
         <v>50</v>
@@ -12456,7 +12460,7 @@
         <v>30630</v>
       </c>
     </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E54" s="29"/>
       <c r="F54" s="6">
         <v>51</v>
@@ -12483,7 +12487,7 @@
         <v>30515</v>
       </c>
     </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E55" s="29"/>
       <c r="F55" s="6">
         <v>52</v>
@@ -12510,7 +12514,7 @@
         <v>30743</v>
       </c>
     </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E56" s="29"/>
       <c r="F56" s="6">
         <v>53</v>
@@ -12537,7 +12541,7 @@
         <v>30609</v>
       </c>
     </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E57" s="29"/>
       <c r="F57" s="6">
         <v>54</v>
@@ -12564,7 +12568,7 @@
         <v>30524</v>
       </c>
     </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E58" s="29"/>
       <c r="F58" s="6">
         <v>55</v>
@@ -12591,7 +12595,7 @@
         <v>30516</v>
       </c>
     </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E59" s="29"/>
       <c r="F59" s="6">
         <v>56</v>
@@ -12618,7 +12622,7 @@
         <v>30523</v>
       </c>
     </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E60" s="29"/>
       <c r="F60" s="6">
         <v>57</v>
@@ -12645,7 +12649,7 @@
         <v>30670</v>
       </c>
     </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E61" s="29"/>
       <c r="F61" s="6">
         <v>58</v>
@@ -12672,7 +12676,7 @@
         <v>30575</v>
       </c>
     </row>
-    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E62" s="29"/>
       <c r="F62" s="6">
         <v>59</v>
@@ -12699,7 +12703,7 @@
         <v>30691</v>
       </c>
     </row>
-    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E63" s="29"/>
       <c r="F63" s="6">
         <v>60</v>
@@ -12726,7 +12730,7 @@
         <v>30552</v>
       </c>
     </row>
-    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E64" s="29"/>
       <c r="F64" s="6">
         <v>61</v>
@@ -12753,7 +12757,7 @@
         <v>30645</v>
       </c>
     </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E65" s="29"/>
       <c r="F65" s="6">
         <v>62</v>
@@ -12780,7 +12784,7 @@
         <v>30591</v>
       </c>
     </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E66" s="29"/>
       <c r="F66" s="6">
         <v>63</v>
@@ -12807,7 +12811,7 @@
         <v>30694</v>
       </c>
     </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E67" s="29"/>
       <c r="F67" s="6">
         <v>64</v>
@@ -12834,7 +12838,7 @@
         <v>30595</v>
       </c>
     </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E68" s="29"/>
       <c r="F68" s="6">
         <v>65</v>
@@ -12861,7 +12865,7 @@
         <v>30661</v>
       </c>
     </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E69" s="29"/>
       <c r="F69" s="6">
         <v>66</v>
@@ -12888,7 +12892,7 @@
         <v>30713</v>
       </c>
     </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E70" s="29"/>
       <c r="F70" s="6">
         <v>67</v>
@@ -12915,7 +12919,7 @@
         <v>30701</v>
       </c>
     </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E71" s="29"/>
       <c r="F71" s="6">
         <v>68</v>
@@ -12942,7 +12946,7 @@
         <v>30603</v>
       </c>
     </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E72" s="29"/>
       <c r="F72" s="6">
         <v>69</v>
@@ -12969,7 +12973,7 @@
         <v>30585</v>
       </c>
     </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E73" s="29"/>
       <c r="F73" s="6">
         <v>70</v>
@@ -12996,7 +13000,7 @@
         <v>30557</v>
       </c>
     </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E74" s="29"/>
       <c r="F74" s="6">
         <v>71</v>
@@ -13023,7 +13027,7 @@
         <v>30577</v>
       </c>
     </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E75" s="29"/>
       <c r="F75" s="6">
         <v>72</v>
@@ -13050,7 +13054,7 @@
         <v>30712</v>
       </c>
     </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E76" s="29"/>
       <c r="F76" s="6">
         <v>73</v>
@@ -13077,7 +13081,7 @@
         <v>30521</v>
       </c>
     </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E77" s="29"/>
       <c r="F77" s="6">
         <v>74</v>
@@ -13104,7 +13108,7 @@
         <v>30645</v>
       </c>
     </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E78" s="29"/>
       <c r="F78" s="6">
         <v>75</v>
@@ -13131,7 +13135,7 @@
         <v>30634</v>
       </c>
     </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E79" s="29"/>
       <c r="F79" s="6">
         <v>76</v>
@@ -13158,7 +13162,7 @@
         <v>30658</v>
       </c>
     </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E80" s="29"/>
       <c r="F80" s="6">
         <v>77</v>
@@ -13185,7 +13189,7 @@
         <v>30585</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E81" s="29"/>
       <c r="F81" s="6">
         <v>78</v>
@@ -13212,7 +13216,7 @@
         <v>30697</v>
       </c>
     </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E82" s="29"/>
       <c r="F82" s="6">
         <v>79</v>
@@ -13239,7 +13243,7 @@
         <v>30690</v>
       </c>
     </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E83" s="29"/>
       <c r="F83" s="6">
         <v>80</v>
@@ -13266,7 +13270,7 @@
         <v>30580</v>
       </c>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E84" s="29"/>
       <c r="F84" s="6">
         <v>81</v>
@@ -13293,7 +13297,7 @@
         <v>30756</v>
       </c>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E85" s="29"/>
       <c r="F85" s="6">
         <v>82</v>
@@ -13320,7 +13324,7 @@
         <v>30767</v>
       </c>
     </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E86" s="29"/>
       <c r="F86" s="6">
         <v>83</v>
@@ -13347,7 +13351,7 @@
         <v>30703</v>
       </c>
     </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E87" s="29"/>
       <c r="F87" s="6">
         <v>84</v>
@@ -13374,7 +13378,7 @@
         <v>30767</v>
       </c>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E88" s="29"/>
       <c r="F88" s="6">
         <v>85</v>
@@ -13401,7 +13405,7 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E89" s="29"/>
       <c r="F89" s="6">
         <v>86</v>
@@ -13428,7 +13432,7 @@
         <v>30506</v>
       </c>
     </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E90" s="29"/>
       <c r="F90" s="6">
         <v>87</v>
@@ -13455,7 +13459,7 @@
         <v>30733</v>
       </c>
     </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E91" s="29"/>
       <c r="F91" s="6">
         <v>88</v>
@@ -13482,7 +13486,7 @@
         <v>30742</v>
       </c>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E92" s="29"/>
       <c r="F92" s="6">
         <v>89</v>
@@ -13509,7 +13513,7 @@
         <v>30637</v>
       </c>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E93" s="29"/>
       <c r="F93" s="6">
         <v>90</v>
@@ -13536,7 +13540,7 @@
         <v>30565</v>
       </c>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E94" s="29"/>
       <c r="F94" s="6">
         <v>91</v>
@@ -13563,7 +13567,7 @@
         <v>30712</v>
       </c>
     </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E95" s="29"/>
       <c r="F95" s="6">
         <v>92</v>
@@ -13590,7 +13594,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E96" s="29"/>
       <c r="F96" s="6">
         <v>93</v>
@@ -13617,7 +13621,7 @@
         <v>30562</v>
       </c>
     </row>
-    <row r="97" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E97" s="29"/>
       <c r="F97" s="6">
         <v>94</v>
@@ -13644,7 +13648,7 @@
         <v>30694</v>
       </c>
     </row>
-    <row r="98" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E98" s="29"/>
       <c r="F98" s="6">
         <v>95</v>
@@ -13671,7 +13675,7 @@
         <v>30706</v>
       </c>
     </row>
-    <row r="99" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E99" s="29"/>
       <c r="F99" s="6">
         <v>96</v>
@@ -13698,7 +13702,7 @@
         <v>30512</v>
       </c>
     </row>
-    <row r="100" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E100" s="29"/>
       <c r="F100" s="6">
         <v>97</v>
@@ -13725,7 +13729,7 @@
         <v>30630</v>
       </c>
     </row>
-    <row r="101" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E101" s="29"/>
       <c r="F101" s="6">
         <v>98</v>
@@ -13752,7 +13756,7 @@
         <v>30550</v>
       </c>
     </row>
-    <row r="102" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E102" s="29"/>
       <c r="F102" s="6">
         <v>99</v>
@@ -13779,7 +13783,7 @@
         <v>30573</v>
       </c>
     </row>
-    <row r="103" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E103" s="29"/>
       <c r="F103" s="6">
         <v>100</v>
@@ -13806,7 +13810,7 @@
         <v>30545</v>
       </c>
     </row>
-    <row r="104" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:13" x14ac:dyDescent="0.3">
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -13830,61 +13834,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="19"/>
-    <col min="9" max="9" width="9.140625" style="19" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="19"/>
-    <col min="16" max="16" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="19" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="19"/>
-    <col min="23" max="23" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="19"/>
+    <col min="9" max="9" width="9.109375" style="19" customWidth="1"/>
+    <col min="10" max="15" width="9.109375" style="19"/>
+    <col min="16" max="16" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="19" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="19"/>
+    <col min="23" max="23" width="9.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="43"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -13944,7 +13948,7 @@
       </c>
       <c r="W2" s="23"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -13958,30 +13962,30 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>128</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>256</v>
       </c>
@@ -14048,10 +14052,10 @@
         <v>285.48</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="6">
         <v>2</v>
       </c>
@@ -14099,7 +14103,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>512</v>
       </c>
@@ -14161,7 +14165,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1024</v>
       </c>
@@ -14224,7 +14228,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2048</v>
       </c>
@@ -14287,7 +14291,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4096</v>
       </c>
@@ -14350,7 +14354,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10"/>
@@ -14408,7 +14412,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -14466,11 +14470,11 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="6">
         <v>2048</v>
       </c>
@@ -14525,7 +14529,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
@@ -14586,7 +14590,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>1</v>
       </c>
@@ -14641,7 +14645,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -14697,7 +14701,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -14706,10 +14710,10 @@
         <v>1051.98</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="6">
         <v>13</v>
       </c>
@@ -14757,7 +14761,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>8</v>
       </c>
@@ -14819,7 +14823,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -14882,7 +14886,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>32</v>
       </c>
@@ -14945,7 +14949,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="7"/>
       <c r="C20"/>
@@ -15003,7 +15007,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C21"/>
       <c r="D21" s="16">
         <v>8</v>
@@ -15059,12 +15063,12 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="6">
         <v>16</v>
       </c>
@@ -15119,11 +15123,11 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="6">
@@ -15180,12 +15184,12 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f>A3/B24</f>
         <v>8</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="48">
         <v>8</v>
       </c>
       <c r="D24" s="10"/>
@@ -15237,12 +15241,12 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f>A4/B24</f>
         <v>16</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="49"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6">
         <v>22</v>
@@ -15291,12 +15295,12 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f>A5/B24</f>
         <v>32</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="49"/>
       <c r="E26" s="1"/>
       <c r="F26" s="6">
         <v>23</v>
@@ -15345,12 +15349,12 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f>A6/B24</f>
         <v>64</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="49"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6">
         <v>24</v>
@@ -15399,12 +15403,12 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f>A7/B24</f>
         <v>128</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="49"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6">
         <v>25</v>
@@ -15453,12 +15457,12 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f>A8/B24</f>
         <v>256</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="49"/>
       <c r="E29" s="1"/>
       <c r="F29" s="6">
         <v>26</v>
@@ -15507,12 +15511,12 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f>A9/B24</f>
         <v>512</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="49"/>
       <c r="F30" s="6">
         <v>27</v>
       </c>
@@ -15560,7 +15564,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>28</v>
@@ -15609,12 +15613,12 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -15663,7 +15667,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -15721,7 +15725,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>64</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>128</v>
       </c>
@@ -15841,7 +15845,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>256</v>
       </c>
@@ -15901,7 +15905,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>512</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>1024</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>2048</v>
       </c>
@@ -16079,7 +16083,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>4096</v>
       </c>
@@ -16137,7 +16141,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
         <v>38</v>
       </c>
@@ -16184,11 +16188,11 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="48" t="s">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="46"/>
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -16235,7 +16239,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>26</v>
       </c>
@@ -16288,12 +16292,12 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B44" s="16">
         <f>('Seq. Results'!B3+'Seq. Results'!E13)/(B3-E7) - B34</f>
         <v>1.7444756998069771E-2</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="42">
         <f>B34-('Seq. Results'!B3-'Seq. Results'!E13)/(B3+E7)</f>
         <v>1.6003102759232612E-2</v>
       </c>
@@ -16343,12 +16347,12 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B45" s="16">
         <f>('Seq. Results'!B4+'Seq. Results'!E14)/(B4-E8) - B35</f>
         <v>2.9219082494406301E-2</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="42">
         <f>B35-('Seq. Results'!B4-'Seq. Results'!E14)/(B4+E8)</f>
         <v>2.7451846608023744E-2</v>
       </c>
@@ -16398,12 +16402,12 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B46" s="16">
         <f>('Seq. Results'!B5+'Seq. Results'!E15)/(B5-E9) - B36</f>
         <v>2.9908795413046141E-2</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="42">
         <f>B36-('Seq. Results'!B5-'Seq. Results'!E15)/(B5+E9)</f>
         <v>2.9045166356023167E-2</v>
       </c>
@@ -16453,12 +16457,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B47" s="16">
         <f>('Seq. Results'!B6+'Seq. Results'!E16)/(B6-E10) - B37</f>
         <v>3.870168981476052E-2</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="42">
         <f>B37-('Seq. Results'!B6-'Seq. Results'!E16)/(B6+E10)</f>
         <v>3.7978282803384555E-2</v>
       </c>
@@ -16508,12 +16512,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B48" s="16">
         <f>('Seq. Results'!B7+'Seq. Results'!E17)/(B7-E11) - B38</f>
         <v>3.855226750576346E-2</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="42">
         <f>B38-('Seq. Results'!B7-'Seq. Results'!E17)/(B7+E11)</f>
         <v>3.8208409174706581E-2</v>
       </c>
@@ -16563,12 +16567,12 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="16">
         <f>('Seq. Results'!B8+'Seq. Results'!E18)/(B8-E12) - B39</f>
         <v>5.5918063938335649E-2</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="42">
         <f>B39-('Seq. Results'!B8-'Seq. Results'!E18)/(B8+E12)</f>
         <v>5.5331335328913767E-2</v>
       </c>
@@ -16618,12 +16622,12 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
         <f>('Seq. Results'!B9+'Seq. Results'!E19)/(B9-E13) - B40</f>
         <v>6.1641128484716035E-2</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="42">
         <f>B40-('Seq. Results'!B9-'Seq. Results'!E19)/(B9+E13)</f>
         <v>6.1166544585375959E-2</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
         <v>48</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F52" s="6">
         <v>49</v>
       </c>
@@ -16767,7 +16771,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
         <v>50</v>
       </c>
@@ -16814,7 +16818,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F54" s="6">
         <v>51</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F55" s="6">
         <v>52</v>
       </c>
@@ -16908,7 +16912,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F56" s="6">
         <v>53</v>
       </c>
@@ -16955,7 +16959,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F57" s="6">
         <v>54</v>
       </c>
@@ -17002,7 +17006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F58" s="6">
         <v>55</v>
       </c>
@@ -17049,7 +17053,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F59" s="6">
         <v>56</v>
       </c>
@@ -17096,7 +17100,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F60" s="6">
         <v>57</v>
       </c>
@@ -17143,7 +17147,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F61" s="6">
         <v>58</v>
       </c>
@@ -17190,7 +17194,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F62" s="6">
         <v>59</v>
       </c>
@@ -17237,7 +17241,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F63" s="6">
         <v>60</v>
       </c>
@@ -17284,7 +17288,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F64" s="6">
         <v>61</v>
       </c>
@@ -17331,7 +17335,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F65" s="6">
         <v>62</v>
       </c>
@@ -17378,7 +17382,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F66" s="6">
         <v>63</v>
       </c>
@@ -17425,7 +17429,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F67" s="6">
         <v>64</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F68" s="6">
         <v>65</v>
       </c>
@@ -17519,7 +17523,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F69" s="6">
         <v>66</v>
       </c>
@@ -17566,7 +17570,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F70" s="6">
         <v>67</v>
       </c>
@@ -17613,7 +17617,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F71" s="6">
         <v>68</v>
       </c>
@@ -17660,7 +17664,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F72" s="6">
         <v>69</v>
       </c>
@@ -17707,7 +17711,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F73" s="6">
         <v>70</v>
       </c>
@@ -17754,7 +17758,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F74" s="6">
         <v>71</v>
       </c>
@@ -17801,7 +17805,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F75" s="6">
         <v>72</v>
       </c>
@@ -17848,7 +17852,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F76" s="6">
         <v>73</v>
       </c>
@@ -17895,7 +17899,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F77" s="6">
         <v>74</v>
       </c>
@@ -17942,7 +17946,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F78" s="6">
         <v>75</v>
       </c>
@@ -17989,7 +17993,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F79" s="6">
         <v>76</v>
       </c>
@@ -18036,7 +18040,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F80" s="6">
         <v>77</v>
       </c>
@@ -18083,7 +18087,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F81" s="6">
         <v>78</v>
       </c>
@@ -18130,7 +18134,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F82" s="6">
         <v>79</v>
       </c>
@@ -18177,7 +18181,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F83" s="6">
         <v>80</v>
       </c>
@@ -18224,7 +18228,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F84" s="6">
         <v>81</v>
       </c>
@@ -18271,7 +18275,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F85" s="6">
         <v>82</v>
       </c>
@@ -18318,7 +18322,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F86" s="6">
         <v>83</v>
       </c>
@@ -18365,7 +18369,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F87" s="6">
         <v>84</v>
       </c>
@@ -18412,7 +18416,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F88" s="6">
         <v>85</v>
       </c>
@@ -18459,7 +18463,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F89" s="6">
         <v>86</v>
       </c>
@@ -18506,7 +18510,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F90" s="6">
         <v>87</v>
       </c>
@@ -18553,7 +18557,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F91" s="6">
         <v>88</v>
       </c>
@@ -18600,7 +18604,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F92" s="6">
         <v>89</v>
       </c>
@@ -18647,7 +18651,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F93" s="6">
         <v>90</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F94" s="6">
         <v>91</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F95" s="6">
         <v>92</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F96" s="6">
         <v>93</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F97" s="6">
         <v>94</v>
       </c>
@@ -18882,7 +18886,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="98" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F98" s="6">
         <v>95</v>
       </c>
@@ -18929,7 +18933,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="99" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F99" s="6">
         <v>96</v>
       </c>
@@ -18976,7 +18980,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="100" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F100" s="6">
         <v>97</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="101" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F101" s="6">
         <v>98</v>
       </c>
@@ -19070,7 +19074,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="102" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F102" s="6">
         <v>99</v>
       </c>
@@ -19117,7 +19121,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="103" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F103" s="6">
         <v>100</v>
       </c>
@@ -19166,6 +19170,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:M1"/>
@@ -19174,10 +19182,6 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19191,28 +19195,28 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -19221,7 +19225,7 @@
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
@@ -19237,7 +19241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -19297,7 +19301,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
@@ -19356,7 +19360,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="18"/>
       <c r="H6">
@@ -19410,7 +19414,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>1270</v>
       </c>
@@ -19462,11 +19466,11 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="43"/>
       <c r="H8">
         <v>1268</v>
       </c>
@@ -19518,7 +19522,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -19576,7 +19580,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
@@ -19637,7 +19641,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
@@ -19698,7 +19702,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -19759,7 +19763,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="30"/>
       <c r="D13" s="17"/>
@@ -19815,7 +19819,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="30"/>
       <c r="D14" s="17"/>
@@ -19871,7 +19875,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="30"/>
       <c r="D15" s="17"/>
@@ -19926,7 +19930,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="30"/>
       <c r="H16">
@@ -19980,7 +19984,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>1278</v>
       </c>
@@ -20032,7 +20036,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>1271</v>
       </c>
@@ -20084,7 +20088,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="29"/>
       <c r="H19">
         <v>1267</v>
@@ -20137,7 +20141,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="H20">
         <v>1265</v>
@@ -20190,7 +20194,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
       <c r="H21">
         <v>1269</v>
@@ -20243,7 +20247,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="H22">
         <v>1276</v>
@@ -20296,7 +20300,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="H23">
         <v>1272</v>
@@ -20349,7 +20353,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1281</v>
       </c>
@@ -20401,7 +20405,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>1267</v>
       </c>
@@ -20453,7 +20457,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1276</v>
       </c>
@@ -20505,7 +20509,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>1283</v>
       </c>
@@ -20557,7 +20561,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>1298</v>
       </c>
@@ -20609,7 +20613,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>1273</v>
       </c>
@@ -20661,7 +20665,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>1265</v>
       </c>
@@ -20713,7 +20717,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>1266</v>
       </c>
@@ -20765,7 +20769,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>1272</v>
       </c>
@@ -20817,7 +20821,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>1270</v>
       </c>
@@ -20869,7 +20873,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>1274</v>
       </c>
@@ -20921,7 +20925,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>1291</v>
       </c>
@@ -20973,7 +20977,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>1275</v>
       </c>
@@ -21025,7 +21029,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>1271</v>
       </c>
@@ -21077,7 +21081,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>1280</v>
       </c>
@@ -21129,7 +21133,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>1269</v>
       </c>
@@ -21181,7 +21185,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>1275</v>
       </c>
@@ -21233,7 +21237,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>1269</v>
       </c>
@@ -21285,7 +21289,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>1281</v>
       </c>
@@ -21337,7 +21341,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>1267</v>
       </c>
@@ -21389,7 +21393,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>1261</v>
       </c>
@@ -21441,7 +21445,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>1273</v>
       </c>
@@ -21493,7 +21497,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>1267</v>
       </c>
@@ -21545,7 +21549,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>1267</v>
       </c>
@@ -21597,7 +21601,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>1265</v>
       </c>
@@ -21649,7 +21653,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>1279</v>
       </c>
@@ -21701,7 +21705,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>1270</v>
       </c>
@@ -21753,7 +21757,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>1277</v>
       </c>
@@ -21805,7 +21809,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H52">
         <v>1269</v>
       </c>
@@ -21857,7 +21861,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:54" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>1267</v>
       </c>
@@ -21909,7 +21913,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="8:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:54" x14ac:dyDescent="0.3">
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>

--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
@@ -2034,7 +2034,7 @@
           <c:x val="9.253226288333459E-2"/>
           <c:y val="0.10236975533648379"/>
           <c:w val="0.90746773711666529"/>
-          <c:h val="0.7010473522718641"/>
+          <c:h val="0.73544453437167423"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2737,6 +2737,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28237827003234861"/>
+          <c:y val="0.94181780814060934"/>
+          <c:w val="0.42937522554138019"/>
+          <c:h val="5.6158829189953928E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6562,7 +6572,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0"/>
+    <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10498,7 +10508,7 @@
   <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13834,8 +13844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Comparison 1" sheetId="13" r:id="rId5"/>
     <sheet name="Comparison 2" sheetId="12" r:id="rId6"/>
     <sheet name="Comaprison 3" sheetId="7" r:id="rId7"/>
-    <sheet name="Comparison 4" sheetId="15" r:id="rId8"/>
-    <sheet name="Seq Graph" sheetId="14" r:id="rId9"/>
+    <sheet name="Comparison 4" sheetId="17" r:id="rId8"/>
+    <sheet name="Comparison 5" sheetId="16" r:id="rId9"/>
+    <sheet name="Seq Graph" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>Time / ms</t>
   </si>
@@ -111,6 +112,9 @@
   </si>
   <si>
     <t>Neg</t>
+  </si>
+  <si>
+    <t>Efficiency Err</t>
   </si>
 </sst>
 </file>
@@ -723,7 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,6 +843,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,6 +866,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2838,7 +2851,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="2400" baseline="0"/>
-              <a:t>Parallel Speedups Comparison</a:t>
+              <a:t>Parallel Speedup Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3045,7 +3058,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4928-43A8-8771-5982C00D3F1D}"/>
+              <c16:uniqueId val="{00000000-FE52-4798-BDFB-174F74A7828B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3205,7 +3218,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4928-43A8-8771-5982C00D3F1D}"/>
+              <c16:uniqueId val="{00000001-FE52-4798-BDFB-174F74A7828B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3331,6 +3344,7 @@
         <c:axId val="507078200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3403,7 +3417,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3443,6 +3457,7 @@
         <c:crossAx val="507077544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3511,6 +3526,715 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
+              <a:t>Parallel Efficiency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.253226288333459E-2"/>
+          <c:y val="0.10236975533648379"/>
+          <c:w val="0.90746773711666529"/>
+          <c:h val="0.7010473522718641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>OMP!$D$35:$D$41</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.17564529666854584</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0414514330976981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1461287737949641E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.140490403233807E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.8558105772825728E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7632460421516134E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.662473591188208E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>OMP!$E$35:$E$41</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>9.0646185797987194E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5682745159775431E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0331018257214062E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1126111413843898E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.757985789725085E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7297527925893581E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.6481024280428089E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>OMP!$A$24:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OMP!$C$24:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32972186287192756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44133376991923162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54311852549441675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60388168496795713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63744203883833628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64567980092097066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65948489909056629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8655-43DC-8650-DF6CD386C93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CUDA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>CUDA!$D$44:$D$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.1805946247587214E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8261926559003938E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.346498566576919E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.0471390335563313E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0118958988877703E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1842993725912363E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2039282907171101E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>CUDA!$E$44:$E$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.0003878449040766E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.715740413001484E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0766144862572395E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.9341066880288368E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.9850319667739517E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.161380286285694E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1946590739331242E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>OMP!$A$24:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA!$C$34:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.41016548463357E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.223659034377193E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5352739246181868E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8122645928757991E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7612570648698468E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2889261025396237E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3131569125467596E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8655-43DC-8650-DF6CD386C93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="507077544"/>
+        <c:axId val="507078200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507077544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+                  <a:t>Number of Bodies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507078200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507078200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507077544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3988,6 +4712,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6066,6 +6830,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6606,6 +7886,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6614,7 +7906,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -6734,7 +8026,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DAB54E-FC27-41D5-9F41-2A2F543EE98B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6758,6 +8050,39 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866F8B09-F834-4603-A81E-D46D545EFEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -7081,32 +8406,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -7183,27 +8508,27 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -7611,10 +8936,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -7663,10 +8988,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
@@ -10507,8 +11832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10516,8 +11841,8 @@
     <col min="1" max="1" width="17.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="9.109375" style="17"/>
     <col min="15" max="15" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
@@ -10531,23 +11856,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -10615,15 +11940,15 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
       <c r="O3" s="10"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="19"/>
@@ -10947,10 +12272,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -11427,11 +12752,11 @@
       <c r="V21" s="19"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6">
@@ -11838,11 +13163,14 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="29"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="47"/>
       <c r="F33" s="6">
         <v>30</v>
       </c>
@@ -11875,7 +13203,12 @@
       <c r="C34" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="F34" s="6">
         <v>31</v>
       </c>
@@ -11910,7 +13243,14 @@
         <f>B24-('Seq. Results'!B3-'Seq. Results'!E13)/(B3+E13)</f>
         <v>0.36258474319194878</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="D35" s="16">
+        <f>((B24+B35)/B20) - C24</f>
+        <v>0.17564529666854584</v>
+      </c>
+      <c r="E35" s="42">
+        <f>C24-((B24-C35)/B20)</f>
+        <v>9.0646185797987194E-2</v>
+      </c>
       <c r="F35" s="6">
         <v>32</v>
       </c>
@@ -11945,7 +13285,14 @@
         <f>B25-('Seq. Results'!B4-'Seq. Results'!E14)/(B4+E14)</f>
         <v>0.14273098063910172</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="D36" s="16">
+        <f>((B25+B36)/B20) - C25</f>
+        <v>4.0414514330976981E-2</v>
+      </c>
+      <c r="E36" s="42">
+        <f>C25-((B25-C36)/B20)</f>
+        <v>3.5682745159775431E-2</v>
+      </c>
       <c r="F36" s="6">
         <v>33</v>
       </c>
@@ -11980,7 +13327,14 @@
         <f>B26-('Seq. Results'!B5-'Seq. Results'!E15)/(B5+E15)</f>
         <v>8.1324073028856247E-2</v>
       </c>
-      <c r="E37" s="29"/>
+      <c r="D37" s="16">
+        <f>((B26+B37)/B20) - C26</f>
+        <v>2.1461287737949641E-2</v>
+      </c>
+      <c r="E37" s="42">
+        <f>C26-((B26-C37)/B20)</f>
+        <v>2.0331018257214062E-2</v>
+      </c>
       <c r="F37" s="6">
         <v>34</v>
       </c>
@@ -12015,7 +13369,14 @@
         <f>B27-('Seq. Results'!B6-'Seq. Results'!E16)/(B6+E16)</f>
         <v>4.4504445655375591E-2</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="D38" s="16">
+        <f>((B27+B38)/B20) - C27</f>
+        <v>1.140490403233807E-2</v>
+      </c>
+      <c r="E38" s="42">
+        <f>C27-((B27-C38)/B20)</f>
+        <v>1.1126111413843898E-2</v>
+      </c>
       <c r="F38" s="6">
         <v>35</v>
       </c>
@@ -12050,7 +13411,14 @@
         <f>B28-('Seq. Results'!B7-'Seq. Results'!E17)/(B7+E17)</f>
         <v>2.703194315890034E-2</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="D39" s="16">
+        <f>((B28+B39)/B20) - C28</f>
+        <v>6.8558105772825728E-3</v>
+      </c>
+      <c r="E39" s="42">
+        <f>C28-((B28-C39)/B20)</f>
+        <v>6.757985789725085E-3</v>
+      </c>
       <c r="F39" s="6">
         <v>36</v>
       </c>
@@ -12085,7 +13453,14 @@
         <f>B29-('Seq. Results'!B8-'Seq. Results'!E18)/(B8+E18)</f>
         <v>1.4919011170357432E-2</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="D40" s="16">
+        <f>((B29+B40)/B20) - C29</f>
+        <v>3.7632460421516134E-3</v>
+      </c>
+      <c r="E40" s="42">
+        <f>C29-((B29-C40)/B20)</f>
+        <v>3.7297527925893581E-3</v>
+      </c>
       <c r="F40" s="6">
         <v>37</v>
       </c>
@@ -12120,7 +13495,14 @@
         <f>B30-('Seq. Results'!B9-'Seq. Results'!E19)/(B9+E19)</f>
         <v>1.0592409712171236E-2</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="D41" s="16">
+        <f>((B30+B41)/B20) - C30</f>
+        <v>2.662473591188208E-3</v>
+      </c>
+      <c r="E41" s="42">
+        <f>C30-((B30-C41)/B20)</f>
+        <v>2.6481024280428089E-3</v>
+      </c>
       <c r="F41" s="6">
         <v>38</v>
       </c>
@@ -13827,13 +15209,14 @@
       <c r="J104" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13844,8 +15227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B40"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13854,7 +15237,7 @@
     <col min="2" max="2" width="17.109375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.109375" style="19"/>
     <col min="9" max="9" width="9.109375" style="19" customWidth="1"/>
@@ -13870,32 +15253,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -13972,27 +15355,27 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -14062,10 +15445,10 @@
         <v>285.48</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="6">
         <v>2</v>
       </c>
@@ -14481,10 +15864,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="D12" s="6">
         <v>2048</v>
       </c>
@@ -14720,10 +16103,10 @@
         <v>1051.98</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="6">
         <v>13</v>
       </c>
@@ -15074,10 +16457,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="39"/>
       <c r="D22" s="6">
         <v>16</v>
@@ -15199,7 +16582,7 @@
         <f>A3/B24</f>
         <v>8</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="49">
         <v>8</v>
       </c>
       <c r="D24" s="10"/>
@@ -15256,7 +16639,7 @@
         <f>A4/B24</f>
         <v>16</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="50"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6">
         <v>22</v>
@@ -15310,7 +16693,7 @@
         <f>A5/B24</f>
         <v>32</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="50"/>
       <c r="E26" s="1"/>
       <c r="F26" s="6">
         <v>23</v>
@@ -15364,7 +16747,7 @@
         <f>A6/B24</f>
         <v>64</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="50"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6">
         <v>24</v>
@@ -15418,7 +16801,7 @@
         <f>A7/B24</f>
         <v>128</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="50"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6">
         <v>25</v>
@@ -15472,7 +16855,7 @@
         <f>A8/B24</f>
         <v>256</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="50"/>
       <c r="E29" s="1"/>
       <c r="F29" s="6">
         <v>26</v>
@@ -15526,7 +16909,7 @@
         <f>A9/B24</f>
         <v>512</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="50"/>
       <c r="F30" s="6">
         <v>27</v>
       </c>
@@ -15624,11 +17007,11 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -16199,10 +17582,14 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="46"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="47"/>
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -16253,7 +17640,13 @@
       <c r="B43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="6">
@@ -16307,9 +17700,17 @@
         <f>('Seq. Results'!B3+'Seq. Results'!E13)/(B3-E7) - B34</f>
         <v>1.7444756998069771E-2</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="52">
         <f>B34-('Seq. Results'!B3-'Seq. Results'!E13)/(B3+E7)</f>
         <v>1.6003102759232612E-2</v>
+      </c>
+      <c r="D44" s="16">
+        <f>((B34+B44)/A24) - C34</f>
+        <v>2.1805946247587214E-3</v>
+      </c>
+      <c r="E44" s="42">
+        <f>C34-((B34-C44)/A24)</f>
+        <v>2.0003878449040766E-3</v>
       </c>
       <c r="F44" s="6">
         <v>41</v>
@@ -16362,9 +17763,17 @@
         <f>('Seq. Results'!B4+'Seq. Results'!E14)/(B4-E8) - B35</f>
         <v>2.9219082494406301E-2</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="52">
         <f>B35-('Seq. Results'!B4-'Seq. Results'!E14)/(B4+E8)</f>
         <v>2.7451846608023744E-2</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" ref="D45:D50" si="1">((B35+B45)/A25) - C35</f>
+        <v>1.8261926559003938E-3</v>
+      </c>
+      <c r="E45" s="42">
+        <f t="shared" ref="E45:E50" si="2">C35-((B35-C45)/A25)</f>
+        <v>1.715740413001484E-3</v>
       </c>
       <c r="F45" s="6">
         <v>42</v>
@@ -16417,9 +17826,17 @@
         <f>('Seq. Results'!B5+'Seq. Results'!E15)/(B5-E9) - B36</f>
         <v>2.9908795413046141E-2</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="52">
         <f>B36-('Seq. Results'!B5-'Seq. Results'!E15)/(B5+E9)</f>
         <v>2.9045166356023167E-2</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="1"/>
+        <v>9.346498566576919E-4</v>
+      </c>
+      <c r="E46" s="42">
+        <f t="shared" si="2"/>
+        <v>9.0766144862572395E-4</v>
       </c>
       <c r="F46" s="6">
         <v>43</v>
@@ -16472,9 +17889,17 @@
         <f>('Seq. Results'!B6+'Seq. Results'!E16)/(B6-E10) - B37</f>
         <v>3.870168981476052E-2</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="52">
         <f>B37-('Seq. Results'!B6-'Seq. Results'!E16)/(B6+E10)</f>
         <v>3.7978282803384555E-2</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="1"/>
+        <v>6.0471390335563313E-4</v>
+      </c>
+      <c r="E47" s="42">
+        <f t="shared" si="2"/>
+        <v>5.9341066880288368E-4</v>
       </c>
       <c r="F47" s="6">
         <v>44</v>
@@ -16527,9 +17952,17 @@
         <f>('Seq. Results'!B7+'Seq. Results'!E17)/(B7-E11) - B38</f>
         <v>3.855226750576346E-2</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="52">
         <f>B38-('Seq. Results'!B7-'Seq. Results'!E17)/(B7+E11)</f>
         <v>3.8208409174706581E-2</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="1"/>
+        <v>3.0118958988877703E-4</v>
+      </c>
+      <c r="E48" s="42">
+        <f t="shared" si="2"/>
+        <v>2.9850319667739517E-4</v>
       </c>
       <c r="F48" s="6">
         <v>45</v>
@@ -16582,9 +18015,17 @@
         <f>('Seq. Results'!B8+'Seq. Results'!E18)/(B8-E12) - B39</f>
         <v>5.5918063938335649E-2</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="52">
         <f>B39-('Seq. Results'!B8-'Seq. Results'!E18)/(B8+E12)</f>
         <v>5.5331335328913767E-2</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" si="1"/>
+        <v>2.1842993725912363E-4</v>
+      </c>
+      <c r="E49" s="42">
+        <f t="shared" si="2"/>
+        <v>2.161380286285694E-4</v>
       </c>
       <c r="F49" s="6">
         <v>46</v>
@@ -16637,9 +18078,17 @@
         <f>('Seq. Results'!B9+'Seq. Results'!E19)/(B9-E13) - B40</f>
         <v>6.1641128484716035E-2</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="52">
         <f>B40-('Seq. Results'!B9-'Seq. Results'!E19)/(B9+E13)</f>
         <v>6.1166544585375959E-2</v>
+      </c>
+      <c r="D50" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2039282907171101E-4</v>
+      </c>
+      <c r="E50" s="42">
+        <f t="shared" si="2"/>
+        <v>1.1946590739331242E-4</v>
       </c>
       <c r="F50" s="6">
         <v>47</v>
@@ -19179,7 +20628,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="Q3:V3"/>
@@ -19192,6 +20641,7 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19217,12 +20667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
@@ -19477,10 +20927,10 @@
       <c r="BB7" s="1"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="H8">
         <v>1268</v>
       </c>

--- a/Coursework Part 2/results.xlsx
+++ b/Coursework Part 2/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
@@ -846,6 +846,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,6 +861,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,12 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7886,7 +7886,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0"/>
+    <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8406,32 +8406,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -8508,27 +8508,27 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -8936,10 +8936,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -8988,10 +8988,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
@@ -11856,23 +11856,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -11940,15 +11940,15 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="O3" s="10"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="19"/>
@@ -12272,10 +12272,10 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="6">
         <v>8</v>
       </c>
@@ -12752,11 +12752,11 @@
       <c r="V21" s="19"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6">
@@ -13163,14 +13163,14 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="47" t="s">
+      <c r="C33" s="45"/>
+      <c r="D33" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="47"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="6">
         <v>30</v>
       </c>
@@ -15227,8 +15227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E50"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15253,32 +15253,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="17"/>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -15355,27 +15355,27 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="17"/>
       <c r="P3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -15445,10 +15445,10 @@
         <v>285.48</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="6">
         <v>2</v>
       </c>
@@ -15864,10 +15864,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="D12" s="6">
         <v>2048</v>
       </c>
@@ -16103,10 +16103,10 @@
         <v>1051.98</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="6">
         <v>13</v>
       </c>
@@ -16457,10 +16457,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="39"/>
       <c r="D22" s="6">
         <v>16</v>
@@ -16582,7 +16582,7 @@
         <f>A3/B24</f>
         <v>8</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="51">
         <v>8</v>
       </c>
       <c r="D24" s="10"/>
@@ -16639,7 +16639,7 @@
         <f>A4/B24</f>
         <v>16</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6">
         <v>22</v>
@@ -16693,7 +16693,7 @@
         <f>A5/B24</f>
         <v>32</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="E26" s="1"/>
       <c r="F26" s="6">
         <v>23</v>
@@ -16747,7 +16747,7 @@
         <f>A6/B24</f>
         <v>64</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6">
         <v>24</v>
@@ -16801,7 +16801,7 @@
         <f>A7/B24</f>
         <v>128</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6">
         <v>25</v>
@@ -16855,7 +16855,7 @@
         <f>A8/B24</f>
         <v>256</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="E29" s="1"/>
       <c r="F29" s="6">
         <v>26</v>
@@ -16909,7 +16909,7 @@
         <f>A9/B24</f>
         <v>512</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="F30" s="6">
         <v>27</v>
       </c>
@@ -17007,11 +17007,11 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>29</v>
@@ -17582,14 +17582,14 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="47" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="6">
         <v>39</v>
       </c>
@@ -17700,7 +17700,7 @@
         <f>('Seq. Results'!B3+'Seq. Results'!E13)/(B3-E7) - B34</f>
         <v>1.7444756998069771E-2</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="44">
         <f>B34-('Seq. Results'!B3-'Seq. Results'!E13)/(B3+E7)</f>
         <v>1.6003102759232612E-2</v>
       </c>
@@ -17763,7 +17763,7 @@
         <f>('Seq. Results'!B4+'Seq. Results'!E14)/(B4-E8) - B35</f>
         <v>2.9219082494406301E-2</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="44">
         <f>B35-('Seq. Results'!B4-'Seq. Results'!E14)/(B4+E8)</f>
         <v>2.7451846608023744E-2</v>
       </c>
@@ -17826,7 +17826,7 @@
         <f>('Seq. Results'!B5+'Seq. Results'!E15)/(B5-E9) - B36</f>
         <v>2.9908795413046141E-2</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="44">
         <f>B36-('Seq. Results'!B5-'Seq. Results'!E15)/(B5+E9)</f>
         <v>2.9045166356023167E-2</v>
       </c>
@@ -17889,7 +17889,7 @@
         <f>('Seq. Results'!B6+'Seq. Results'!E16)/(B6-E10) - B37</f>
         <v>3.870168981476052E-2</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="44">
         <f>B37-('Seq. Results'!B6-'Seq. Results'!E16)/(B6+E10)</f>
         <v>3.7978282803384555E-2</v>
       </c>
@@ -17952,7 +17952,7 @@
         <f>('Seq. Results'!B7+'Seq. Results'!E17)/(B7-E11) - B38</f>
         <v>3.855226750576346E-2</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="44">
         <f>B38-('Seq. Results'!B7-'Seq. Results'!E17)/(B7+E11)</f>
         <v>3.8208409174706581E-2</v>
       </c>
@@ -18015,7 +18015,7 @@
         <f>('Seq. Results'!B8+'Seq. Results'!E18)/(B8-E12) - B39</f>
         <v>5.5918063938335649E-2</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="44">
         <f>B39-('Seq. Results'!B8-'Seq. Results'!E18)/(B8+E12)</f>
         <v>5.5331335328913767E-2</v>
       </c>
@@ -18078,7 +18078,7 @@
         <f>('Seq. Results'!B9+'Seq. Results'!E19)/(B9-E13) - B40</f>
         <v>6.1641128484716035E-2</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="44">
         <f>B40-('Seq. Results'!B9-'Seq. Results'!E19)/(B9+E13)</f>
         <v>6.1166544585375959E-2</v>
       </c>
@@ -20651,8 +20651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20667,12 +20667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
@@ -20927,10 +20927,10 @@
       <c r="BB7" s="1"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="45"/>
       <c r="H8">
         <v>1268</v>
       </c>
